--- a/problem2/难度评分.xlsx
+++ b/problem2/难度评分.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11520" windowHeight="9275"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1760,13 +1760,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2093,12 +2096,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:P481"/>
+  <dimension ref="B1:Q481"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B$1:D$1048576"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q$1:Q$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
@@ -2115,7 +2118,8 @@
     <col min="13" max="13" width="8.87878787878788" style="1" customWidth="1"/>
     <col min="14" max="15" width="11" style="1"/>
     <col min="16" max="16" width="12.6363636363636" style="2"/>
-    <col min="17" max="16384" width="11" style="1"/>
+    <col min="17" max="17" width="12.4545454545455" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="7:7">
@@ -2133,10 +2137,10 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -2157,12 +2161,12 @@
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="4">
+    <row r="3" spans="2:17">
+      <c r="B3" s="5">
         <v>44926</v>
       </c>
       <c r="C3" s="1">
@@ -2171,10 +2175,10 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>20380</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>1899</v>
       </c>
       <c r="G3" s="1">
@@ -2210,9 +2214,12 @@
         <f>N3/O3</f>
         <v>4.38383838383838</v>
       </c>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="4">
+      <c r="Q3" s="3">
+        <v>1260481</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="5">
         <v>44925</v>
       </c>
       <c r="C4" s="1">
@@ -2221,10 +2228,10 @@
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>21204</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>1973</v>
       </c>
       <c r="G4" s="1">
@@ -2260,9 +2267,12 @@
         <f>N4/O4</f>
         <v>4.18181818181818</v>
       </c>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="4">
+      <c r="Q4" s="3">
+        <v>650262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="5">
         <v>44924</v>
       </c>
       <c r="C5" s="1">
@@ -2271,10 +2281,10 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>20001</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>1919</v>
       </c>
       <c r="G5" s="1">
@@ -2310,9 +2320,12 @@
         <f>N5/O5</f>
         <v>4.4</v>
       </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="4">
+      <c r="Q5" s="3">
+        <v>1692191</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="5">
         <v>44923</v>
       </c>
       <c r="C6" s="1">
@@ -2321,10 +2334,10 @@
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="4">
         <v>20160</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>1937</v>
       </c>
       <c r="G6" s="1">
@@ -2360,9 +2373,12 @@
         <f t="shared" ref="P6:P69" si="2">N6/O6</f>
         <v>4.19191919191919</v>
       </c>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="4">
+      <c r="Q6" s="3">
+        <v>86447</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="5">
         <v>44922</v>
       </c>
       <c r="C7" s="1">
@@ -2371,10 +2387,10 @@
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>20879</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>2012</v>
       </c>
       <c r="G7" s="1">
@@ -2410,9 +2426,12 @@
         <f t="shared" si="2"/>
         <v>4.45</v>
       </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="4">
+      <c r="Q7" s="3">
+        <v>6444848</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="5">
         <v>44921</v>
       </c>
       <c r="C8" s="1">
@@ -2421,10 +2440,10 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>20011</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>2043</v>
       </c>
       <c r="G8" s="1">
@@ -2460,9 +2479,12 @@
         <f t="shared" si="2"/>
         <v>5.23232323232323</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="4">
+      <c r="Q8" s="3">
+        <v>30905832</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="5">
         <v>44920</v>
       </c>
       <c r="C9" s="1">
@@ -2471,10 +2493,10 @@
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>15554</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1562</v>
       </c>
       <c r="G9" s="1">
@@ -2510,9 +2532,12 @@
         <f t="shared" si="2"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="4">
+      <c r="Q9" s="3">
+        <v>59377307</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="5">
         <v>44919</v>
       </c>
       <c r="C10" s="1">
@@ -2521,10 +2546,10 @@
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>20281</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>1911</v>
       </c>
       <c r="G10" s="1">
@@ -2560,9 +2585,12 @@
         <f t="shared" si="2"/>
         <v>3.68316831683168</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="4">
+      <c r="Q10" s="3">
+        <v>339263</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="5">
         <v>44918</v>
       </c>
       <c r="C11" s="1">
@@ -2571,10 +2599,10 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="4">
         <v>21937</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>2112</v>
       </c>
       <c r="G11" s="1">
@@ -2610,9 +2638,12 @@
         <f t="shared" si="2"/>
         <v>4.08910891089109</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="4">
+      <c r="Q11" s="3">
+        <v>641057</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="5">
         <v>44917</v>
       </c>
       <c r="C12" s="1">
@@ -2621,10 +2652,10 @@
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>20490</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>2034</v>
       </c>
       <c r="G12" s="1">
@@ -2660,9 +2691,12 @@
         <f t="shared" si="2"/>
         <v>4.55555555555556</v>
       </c>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="4">
+      <c r="Q12" s="3">
+        <v>14133468</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="5">
         <v>44916</v>
       </c>
       <c r="C13" s="1">
@@ -2671,10 +2705,10 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>22180</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>2036</v>
       </c>
       <c r="G13" s="1">
@@ -2710,9 +2744,12 @@
         <f t="shared" si="2"/>
         <v>3.8265306122449</v>
       </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="4">
+      <c r="Q13" s="3">
+        <v>3611744</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="5">
         <v>44915</v>
       </c>
       <c r="C14" s="1">
@@ -2760,9 +2797,12 @@
         <f t="shared" si="2"/>
         <v>3.43564356435644</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="4">
+      <c r="Q14" s="3">
+        <v>95489240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="5">
         <v>44914</v>
       </c>
       <c r="C15" s="1">
@@ -2771,10 +2811,10 @@
       <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="4">
         <v>26010</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>2422</v>
       </c>
       <c r="G15" s="1">
@@ -2810,9 +2850,12 @@
         <f t="shared" si="2"/>
         <v>3.46464646464646</v>
       </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="4">
+      <c r="Q15" s="3">
+        <v>3813904</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="5">
         <v>44913</v>
       </c>
       <c r="C16" s="1">
@@ -2821,10 +2864,10 @@
       <c r="D16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="4">
         <v>22166</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>2108</v>
       </c>
       <c r="G16" s="1">
@@ -2860,9 +2903,12 @@
         <f t="shared" si="2"/>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="17" spans="2:16">
-      <c r="B17" s="4">
+      <c r="Q16" s="3">
+        <v>1294069</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="5">
         <v>44912</v>
       </c>
       <c r="C17" s="1">
@@ -2871,10 +2917,10 @@
       <c r="D17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="4">
         <v>22336</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>2088</v>
       </c>
       <c r="G17" s="1">
@@ -2910,9 +2956,12 @@
         <f t="shared" si="2"/>
         <v>3.66</v>
       </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="4">
+      <c r="Q17" s="3">
+        <v>3123447</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="5">
         <v>44911</v>
       </c>
       <c r="C18" s="1">
@@ -2921,10 +2970,10 @@
       <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="4">
         <v>22853</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>2160</v>
       </c>
       <c r="G18" s="1">
@@ -2960,9 +3009,12 @@
         <f t="shared" si="2"/>
         <v>4.19</v>
       </c>
-    </row>
-    <row r="19" spans="2:16">
-      <c r="B19" s="4">
+      <c r="Q18" s="3">
+        <v>9643801</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="5">
         <v>44910</v>
       </c>
       <c r="C19" s="1">
@@ -2971,10 +3023,10 @@
       <c r="D19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="4">
         <v>22176</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>2127</v>
       </c>
       <c r="G19" s="1">
@@ -3010,9 +3062,12 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="2:16">
-      <c r="B20" s="4">
+      <c r="Q19" s="3">
+        <v>4298220</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="5">
         <v>44909</v>
       </c>
       <c r="C20" s="1">
@@ -3021,10 +3076,10 @@
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="4">
         <v>20824</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>2048</v>
       </c>
       <c r="G20" s="1">
@@ -3060,9 +3115,12 @@
         <f t="shared" si="2"/>
         <v>4.24</v>
       </c>
-    </row>
-    <row r="21" spans="2:16">
-      <c r="B21" s="4">
+      <c r="Q20" s="3">
+        <v>17044981</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="5">
         <v>44908</v>
       </c>
       <c r="C21" s="1">
@@ -3071,10 +3129,10 @@
       <c r="D21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="4">
         <v>24101</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>2224</v>
       </c>
       <c r="G21" s="1">
@@ -3110,9 +3168,12 @@
         <f t="shared" si="2"/>
         <v>3.85858585858586</v>
       </c>
-    </row>
-    <row r="22" spans="2:16">
-      <c r="B22" s="4">
+      <c r="Q21" s="3">
+        <v>11577917</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" s="5">
         <v>44907</v>
       </c>
       <c r="C22" s="1">
@@ -3121,10 +3182,10 @@
       <c r="D22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="4">
         <v>22873</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>2150</v>
       </c>
       <c r="G22" s="1">
@@ -3160,9 +3221,12 @@
         <f t="shared" si="2"/>
         <v>4.00990099009901</v>
       </c>
-    </row>
-    <row r="23" spans="2:16">
-      <c r="B23" s="4">
+      <c r="Q22" s="3">
+        <v>76341478</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="5">
         <v>44906</v>
       </c>
       <c r="C23" s="1">
@@ -3171,10 +3235,10 @@
       <c r="D23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4">
         <v>21947</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>2075</v>
       </c>
       <c r="G23" s="1">
@@ -3210,9 +3274,12 @@
         <f t="shared" si="2"/>
         <v>4.08</v>
       </c>
-    </row>
-    <row r="24" spans="2:16">
-      <c r="B24" s="4">
+      <c r="Q23" s="3">
+        <v>1848489</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="B24" s="5">
         <v>44905</v>
       </c>
       <c r="C24" s="1">
@@ -3221,10 +3288,10 @@
       <c r="D24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="4">
         <v>21157</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>2041</v>
       </c>
       <c r="G24" s="1">
@@ -3260,9 +3327,12 @@
         <f t="shared" si="2"/>
         <v>4.22</v>
       </c>
-    </row>
-    <row r="25" spans="2:16">
-      <c r="B25" s="4">
+      <c r="Q24" s="3">
+        <v>5196013</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" s="5">
         <v>44904</v>
       </c>
       <c r="C25" s="1">
@@ -3271,10 +3341,10 @@
       <c r="D25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="4">
         <v>23640</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>2165</v>
       </c>
       <c r="G25" s="1">
@@ -3310,9 +3380,12 @@
         <f t="shared" si="2"/>
         <v>3.63265306122449</v>
       </c>
-    </row>
-    <row r="26" spans="2:16">
-      <c r="B26" s="4">
+      <c r="Q25" s="3">
+        <v>981945</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="5">
         <v>44903</v>
       </c>
       <c r="C26" s="1">
@@ -3321,10 +3394,10 @@
       <c r="D26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="4">
         <v>21199</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>1863</v>
       </c>
       <c r="G26" s="1">
@@ -3360,9 +3433,12 @@
         <f t="shared" si="2"/>
         <v>4.38775510204082</v>
       </c>
-    </row>
-    <row r="27" spans="2:16">
-      <c r="B27" s="4">
+      <c r="Q26" s="3">
+        <v>1104540</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="5">
         <v>44902</v>
       </c>
       <c r="C27" s="1">
@@ -3371,10 +3447,10 @@
       <c r="D27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="4">
         <v>24899</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>2388</v>
       </c>
       <c r="G27" s="1">
@@ -3410,9 +3486,12 @@
         <f t="shared" si="2"/>
         <v>4.02</v>
       </c>
-    </row>
-    <row r="28" spans="2:16">
-      <c r="B28" s="4">
+      <c r="Q27" s="3">
+        <v>160309</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="5">
         <v>44901</v>
       </c>
       <c r="C28" s="1">
@@ -3421,10 +3500,10 @@
       <c r="D28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="4">
         <v>23509</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>2261</v>
       </c>
       <c r="G28" s="1">
@@ -3460,9 +3539,12 @@
         <f t="shared" si="2"/>
         <v>4.23</v>
       </c>
-    </row>
-    <row r="29" spans="2:16">
-      <c r="B29" s="4">
+      <c r="Q28" s="3">
+        <v>11065507</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="5">
         <v>44900</v>
       </c>
       <c r="C29" s="1">
@@ -3471,10 +3553,10 @@
       <c r="D29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="4">
         <v>23153</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>2200</v>
       </c>
       <c r="G29" s="1">
@@ -3510,9 +3592,12 @@
         <f t="shared" si="2"/>
         <v>4.8</v>
       </c>
-    </row>
-    <row r="30" spans="2:16">
-      <c r="B30" s="4">
+      <c r="Q29" s="3">
+        <v>364304</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="5">
         <v>44899</v>
       </c>
       <c r="C30" s="1">
@@ -3521,10 +3606,10 @@
       <c r="D30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="4">
         <v>25577</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>2398</v>
       </c>
       <c r="G30" s="1">
@@ -3560,9 +3645,12 @@
         <f t="shared" si="2"/>
         <v>3.56435643564356</v>
       </c>
-    </row>
-    <row r="31" spans="2:16">
-      <c r="B31" s="4">
+      <c r="Q30" s="3">
+        <v>1176240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="5">
         <v>44898</v>
       </c>
       <c r="C31" s="1">
@@ -3571,10 +3659,10 @@
       <c r="D31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="4">
         <v>23873</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <v>2260</v>
       </c>
       <c r="G31" s="1">
@@ -3610,9 +3698,12 @@
         <f t="shared" si="2"/>
         <v>3.88888888888889</v>
       </c>
-    </row>
-    <row r="32" spans="2:16">
-      <c r="B32" s="4">
+      <c r="Q31" s="3">
+        <v>1769562</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="5">
         <v>44897</v>
       </c>
       <c r="C32" s="1">
@@ -3621,10 +3712,10 @@
       <c r="D32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="4">
         <v>24646</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <v>2343</v>
       </c>
       <c r="G32" s="1">
@@ -3660,9 +3751,12 @@
         <f t="shared" si="2"/>
         <v>4.01010101010101</v>
       </c>
-    </row>
-    <row r="33" spans="2:16">
-      <c r="B33" s="4">
+      <c r="Q32" s="3">
+        <v>118832</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="5">
         <v>44896</v>
       </c>
       <c r="C33" s="1">
@@ -3671,10 +3765,10 @@
       <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="4">
         <v>22628</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <v>2200</v>
       </c>
       <c r="G33" s="1">
@@ -3710,9 +3804,12 @@
         <f t="shared" si="2"/>
         <v>4.55</v>
       </c>
-    </row>
-    <row r="34" spans="2:16">
-      <c r="B34" s="4">
+      <c r="Q33" s="3">
+        <v>935010</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="5">
         <v>44895</v>
       </c>
       <c r="C34" s="1">
@@ -3721,10 +3818,10 @@
       <c r="D34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="4">
         <v>25569</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <v>2405</v>
       </c>
       <c r="G34" s="1">
@@ -3760,9 +3857,12 @@
         <f t="shared" si="2"/>
         <v>4.03</v>
       </c>
-    </row>
-    <row r="35" spans="2:16">
-      <c r="B35" s="4">
+      <c r="Q34" s="3">
+        <v>152978354</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="5">
         <v>44894</v>
       </c>
       <c r="C35" s="1">
@@ -3771,10 +3871,10 @@
       <c r="D35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="4">
         <v>23739</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <v>2316</v>
       </c>
       <c r="G35" s="1">
@@ -3810,9 +3910,12 @@
         <f t="shared" si="2"/>
         <v>4.35643564356436</v>
       </c>
-    </row>
-    <row r="36" spans="2:16">
-      <c r="B36" s="4">
+      <c r="Q35" s="3">
+        <v>1377567</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="5">
         <v>44893</v>
       </c>
       <c r="C36" s="1">
@@ -3821,10 +3924,10 @@
       <c r="D36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="4">
         <v>26051</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <v>2484</v>
       </c>
       <c r="G36" s="1">
@@ -3860,9 +3963,12 @@
         <f t="shared" si="2"/>
         <v>3.60606060606061</v>
       </c>
-    </row>
-    <row r="37" spans="2:16">
-      <c r="B37" s="4">
+      <c r="Q36" s="3">
+        <v>220695</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="5">
         <v>44892</v>
       </c>
       <c r="C37" s="1">
@@ -3871,10 +3977,10 @@
       <c r="D37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="4">
         <v>25206</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <v>2356</v>
       </c>
       <c r="G37" s="1">
@@ -3910,9 +4016,12 @@
         <f t="shared" si="2"/>
         <v>3.93939393939394</v>
       </c>
-    </row>
-    <row r="38" spans="2:16">
-      <c r="B38" s="4">
+      <c r="Q37" s="3">
+        <v>63471922</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="5">
         <v>44891</v>
       </c>
       <c r="C38" s="1">
@@ -3921,10 +4030,10 @@
       <c r="D38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="4">
         <v>26381</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <v>2424</v>
       </c>
       <c r="G38" s="1">
@@ -3960,9 +4069,12 @@
         <f t="shared" si="2"/>
         <v>3.45</v>
       </c>
-    </row>
-    <row r="39" spans="2:16">
-      <c r="B39" s="4">
+      <c r="Q38" s="3">
+        <v>45381752</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="5">
         <v>44890</v>
       </c>
       <c r="C39" s="1">
@@ -3971,10 +4083,10 @@
       <c r="D39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="4">
         <v>24197</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <v>2329</v>
       </c>
       <c r="G39" s="1">
@@ -4010,9 +4122,12 @@
         <f t="shared" si="2"/>
         <v>3.87</v>
       </c>
-    </row>
-    <row r="40" spans="2:16">
-      <c r="B40" s="4">
+      <c r="Q39" s="3">
+        <v>1181967</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="5">
         <v>44889</v>
       </c>
       <c r="C40" s="1">
@@ -4021,10 +4136,10 @@
       <c r="D40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="4">
         <v>27705</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <v>2725</v>
       </c>
       <c r="G40" s="1">
@@ -4060,9 +4175,12 @@
         <f t="shared" si="2"/>
         <v>3.79207920792079</v>
       </c>
-    </row>
-    <row r="41" spans="2:16">
-      <c r="B41" s="4">
+      <c r="Q40" s="3">
+        <v>4166016</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="5">
         <v>44888</v>
       </c>
       <c r="C41" s="1">
@@ -4071,10 +4189,10 @@
       <c r="D41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="4">
         <v>26663</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <v>2451</v>
       </c>
       <c r="G41" s="1">
@@ -4110,9 +4228,12 @@
         <f t="shared" si="2"/>
         <v>3.74</v>
       </c>
-    </row>
-    <row r="42" spans="2:16">
-      <c r="B42" s="4">
+      <c r="Q41" s="3">
+        <v>107799371</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="5">
         <v>44887</v>
       </c>
       <c r="C42" s="1">
@@ -4121,10 +4242,10 @@
       <c r="D42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="4">
         <v>27437</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <v>2534</v>
       </c>
       <c r="G42" s="1">
@@ -4160,9 +4281,12 @@
         <f t="shared" si="2"/>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="43" spans="2:16">
-      <c r="B43" s="4">
+      <c r="Q42" s="3">
+        <v>38308402</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="5">
         <v>44886</v>
       </c>
       <c r="C43" s="1">
@@ -4171,10 +4295,10 @@
       <c r="D43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="4">
         <v>24288</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <v>2382</v>
       </c>
       <c r="G43" s="1">
@@ -4210,9 +4334,12 @@
         <f t="shared" si="2"/>
         <v>4.33</v>
       </c>
-    </row>
-    <row r="44" spans="2:16">
-      <c r="B44" s="4">
+      <c r="Q43" s="3">
+        <v>1495473</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="5">
         <v>44885</v>
       </c>
       <c r="C44" s="1">
@@ -4221,10 +4348,10 @@
       <c r="D44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="4">
         <v>24991</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <v>2396</v>
       </c>
       <c r="G44" s="1">
@@ -4260,9 +4387,12 @@
         <f t="shared" si="2"/>
         <v>4.45544554455446</v>
       </c>
-    </row>
-    <row r="45" spans="2:16">
-      <c r="B45" s="4">
+      <c r="Q44" s="3">
+        <v>5221356</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="5">
         <v>44884</v>
       </c>
       <c r="C45" s="1">
@@ -4271,10 +4401,10 @@
       <c r="D45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="4">
         <v>24749</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <v>2400</v>
       </c>
       <c r="G45" s="1">
@@ -4310,9 +4440,12 @@
         <f t="shared" si="2"/>
         <v>4.03</v>
       </c>
-    </row>
-    <row r="46" spans="2:16">
-      <c r="B46" s="4">
+      <c r="Q45" s="3">
+        <v>767435</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="5">
         <v>44883</v>
       </c>
       <c r="C46" s="1">
@@ -4321,10 +4454,10 @@
       <c r="D46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="4">
         <v>29208</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <v>2899</v>
       </c>
       <c r="G46" s="1">
@@ -4360,9 +4493,12 @@
         <f t="shared" si="2"/>
         <v>4.06</v>
       </c>
-    </row>
-    <row r="47" spans="2:16">
-      <c r="B47" s="4">
+      <c r="Q46" s="3">
+        <v>632257</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="5">
         <v>44882</v>
       </c>
       <c r="C47" s="1">
@@ -4371,10 +4507,10 @@
       <c r="D47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="4">
         <v>27465</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <v>2530</v>
       </c>
       <c r="G47" s="1">
@@ -4410,9 +4546,12 @@
         <f t="shared" si="2"/>
         <v>3.59</v>
       </c>
-    </row>
-    <row r="48" spans="2:16">
-      <c r="B48" s="4">
+      <c r="Q47" s="3">
+        <v>701170205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="5">
         <v>44881</v>
       </c>
       <c r="C48" s="1">
@@ -4421,10 +4560,10 @@
       <c r="D48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="4">
         <v>25576</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <v>2541</v>
       </c>
       <c r="G48" s="1">
@@ -4460,9 +4599,12 @@
         <f t="shared" si="2"/>
         <v>4.72</v>
       </c>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="B49" s="4">
+      <c r="Q48" s="3">
+        <v>14862470</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="5">
         <v>44880</v>
       </c>
       <c r="C49" s="1">
@@ -4471,10 +4613,10 @@
       <c r="D49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="4">
         <v>27475</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <v>2650</v>
       </c>
       <c r="G49" s="1">
@@ -4510,9 +4652,12 @@
         <f t="shared" si="2"/>
         <v>4.35</v>
       </c>
-    </row>
-    <row r="50" spans="2:16">
-      <c r="B50" s="4">
+      <c r="Q49" s="3">
+        <v>184639</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="5">
         <v>44879</v>
       </c>
       <c r="C50" s="1">
@@ -4521,10 +4666,10 @@
       <c r="D50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="4">
         <v>26536</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <v>2467</v>
       </c>
       <c r="G50" s="1">
@@ -4560,9 +4705,12 @@
         <f t="shared" si="2"/>
         <v>3.98989898989899</v>
       </c>
-    </row>
-    <row r="51" spans="2:16">
-      <c r="B51" s="4">
+      <c r="Q50" s="3">
+        <v>9704551</v>
+      </c>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="5">
         <v>44878</v>
       </c>
       <c r="C51" s="1">
@@ -4571,10 +4719,10 @@
       <c r="D51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="4">
         <v>25085</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <v>2515</v>
       </c>
       <c r="G51" s="1">
@@ -4610,9 +4758,12 @@
         <f t="shared" si="2"/>
         <v>4.15</v>
       </c>
-    </row>
-    <row r="52" spans="2:16">
-      <c r="B52" s="4">
+      <c r="Q51" s="3">
+        <v>319343</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="5">
         <v>44877</v>
       </c>
       <c r="C52" s="1">
@@ -4621,10 +4772,10 @@
       <c r="D52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="4">
         <v>24660</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <v>2356</v>
       </c>
       <c r="G52" s="1">
@@ -4660,9 +4811,12 @@
         <f t="shared" si="2"/>
         <v>4.16161616161616</v>
       </c>
-    </row>
-    <row r="53" spans="2:16">
-      <c r="B53" s="4">
+      <c r="Q52" s="3">
+        <v>2052690</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="5">
         <v>44876</v>
       </c>
       <c r="C53" s="1">
@@ -4671,10 +4825,10 @@
       <c r="D53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="4">
         <v>25993</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <v>2438</v>
       </c>
       <c r="G53" s="1">
@@ -4710,9 +4864,12 @@
         <f t="shared" si="2"/>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="54" spans="2:16">
-      <c r="B54" s="4">
+      <c r="Q53" s="3">
+        <v>7747036</v>
+      </c>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="5">
         <v>44875</v>
       </c>
       <c r="C54" s="1">
@@ -4721,10 +4878,10 @@
       <c r="D54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="4">
         <v>27467</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <v>2575</v>
       </c>
       <c r="G54" s="1">
@@ -4760,9 +4917,12 @@
         <f t="shared" si="2"/>
         <v>3.75</v>
       </c>
-    </row>
-    <row r="55" spans="2:16">
-      <c r="B55" s="4">
+      <c r="Q54" s="3">
+        <v>2888724</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="5">
         <v>44874</v>
       </c>
       <c r="C55" s="1">
@@ -4771,10 +4931,10 @@
       <c r="D55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="4">
         <v>28984</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <v>2678</v>
       </c>
       <c r="G55" s="1">
@@ -4810,9 +4970,12 @@
         <f t="shared" si="2"/>
         <v>3.47524752475248</v>
       </c>
-    </row>
-    <row r="56" spans="2:16">
-      <c r="B56" s="4">
+      <c r="Q55" s="3">
+        <v>2469088</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="5">
         <v>44873</v>
       </c>
       <c r="C56" s="1">
@@ -4821,10 +4984,10 @@
       <c r="D56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="4">
         <v>27213</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <v>2531</v>
       </c>
       <c r="G56" s="1">
@@ -4860,9 +5023,12 @@
         <f t="shared" si="2"/>
         <v>4.13131313131313</v>
       </c>
-    </row>
-    <row r="57" spans="2:16">
-      <c r="B57" s="4">
+      <c r="Q56" s="3">
+        <v>8506049</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="5">
         <v>44872</v>
       </c>
       <c r="C57" s="1">
@@ -4871,10 +5037,10 @@
       <c r="D57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="4">
         <v>26096</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="4">
         <v>2439</v>
       </c>
       <c r="G57" s="1">
@@ -4910,9 +5076,12 @@
         <f t="shared" si="2"/>
         <v>4.02020202020202</v>
       </c>
-    </row>
-    <row r="58" spans="2:16">
-      <c r="B58" s="4">
+      <c r="Q57" s="3">
+        <v>45434902</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="5">
         <v>44871</v>
       </c>
       <c r="C58" s="1">
@@ -4921,10 +5090,10 @@
       <c r="D58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="4">
         <v>31068</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="4">
         <v>3013</v>
       </c>
       <c r="G58" s="1">
@@ -4960,9 +5129,12 @@
         <f t="shared" si="2"/>
         <v>3.59405940594059</v>
       </c>
-    </row>
-    <row r="59" spans="2:16">
-      <c r="B59" s="4">
+      <c r="Q58" s="3">
+        <v>1065657</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="5">
         <v>44870</v>
       </c>
       <c r="C59" s="1">
@@ -4971,10 +5143,10 @@
       <c r="D59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="4">
         <v>29743</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="4">
         <v>2751</v>
       </c>
       <c r="G59" s="1">
@@ -5010,9 +5182,12 @@
         <f t="shared" si="2"/>
         <v>3.51515151515151</v>
       </c>
-    </row>
-    <row r="60" spans="2:16">
-      <c r="B60" s="4">
+      <c r="Q59" s="3">
+        <v>33518573</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="5">
         <v>44869</v>
       </c>
       <c r="C60" s="1">
@@ -5021,10 +5196,10 @@
       <c r="D60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="4">
         <v>27330</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>2565</v>
       </c>
       <c r="G60" s="1">
@@ -5060,9 +5235,12 @@
         <f t="shared" si="2"/>
         <v>3.77</v>
       </c>
-    </row>
-    <row r="61" spans="2:16">
-      <c r="B61" s="4">
+      <c r="Q60" s="3">
+        <v>227125249</v>
+      </c>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="5">
         <v>44868</v>
       </c>
       <c r="C61" s="1">
@@ -5071,10 +5249,10 @@
       <c r="D61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="4">
         <v>29554</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="4">
         <v>2819</v>
       </c>
       <c r="G61" s="1">
@@ -5110,9 +5288,12 @@
         <f t="shared" si="2"/>
         <v>3.56</v>
       </c>
-    </row>
-    <row r="62" spans="2:16">
-      <c r="B62" s="4">
+      <c r="Q61" s="3">
+        <v>3743858</v>
+      </c>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="5">
         <v>44867</v>
       </c>
       <c r="C62" s="1">
@@ -5121,10 +5302,10 @@
       <c r="D62" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="4">
         <v>27670</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="4">
         <v>2640</v>
       </c>
       <c r="G62" s="1">
@@ -5160,9 +5341,12 @@
         <f t="shared" si="2"/>
         <v>3.93137254901961</v>
       </c>
-    </row>
-    <row r="63" spans="2:16">
-      <c r="B63" s="4">
+      <c r="Q62" s="3">
+        <v>458533</v>
+      </c>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="5">
         <v>44866</v>
       </c>
       <c r="C63" s="1">
@@ -5171,10 +5355,10 @@
       <c r="D63" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="4">
         <v>27502</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="4">
         <v>3667</v>
       </c>
       <c r="G63" s="1">
@@ -5210,9 +5394,12 @@
         <f t="shared" si="2"/>
         <v>4.5049504950495</v>
       </c>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="B64" s="4">
+      <c r="Q63" s="3">
+        <v>394672</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="5">
         <v>44865</v>
       </c>
       <c r="C64" s="1">
@@ -5221,10 +5408,10 @@
       <c r="D64" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="4">
         <v>26498</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="4">
         <v>2572</v>
       </c>
       <c r="G64" s="1">
@@ -5260,9 +5447,12 @@
         <f t="shared" si="2"/>
         <v>4.07920792079208</v>
       </c>
-    </row>
-    <row r="65" spans="2:16">
-      <c r="B65" s="4">
+      <c r="Q64" s="3">
+        <v>598371</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="5">
         <v>44864</v>
       </c>
       <c r="C65" s="1">
@@ -5271,10 +5461,10 @@
       <c r="D65" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="4">
         <v>24672</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="4">
         <v>2496</v>
       </c>
       <c r="G65" s="1">
@@ -5310,9 +5500,12 @@
         <f t="shared" si="2"/>
         <v>4.67676767676768</v>
       </c>
-    </row>
-    <row r="66" spans="2:16">
-      <c r="B66" s="4">
+      <c r="Q65" s="3">
+        <v>1723021</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="5">
         <v>44863</v>
       </c>
       <c r="C66" s="1">
@@ -5321,10 +5514,10 @@
       <c r="D66" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="4">
         <v>25156</v>
       </c>
-      <c r="F66" s="3">
+      <c r="F66" s="4">
         <v>2536</v>
       </c>
       <c r="G66" s="1">
@@ -5360,9 +5553,12 @@
         <f t="shared" si="2"/>
         <v>4.49</v>
       </c>
-    </row>
-    <row r="67" spans="2:16">
-      <c r="B67" s="4">
+      <c r="Q66" s="3">
+        <v>866830</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="5">
         <v>44862</v>
       </c>
       <c r="C67" s="1">
@@ -5371,10 +5567,10 @@
       <c r="D67" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67" s="4">
         <v>27905</v>
       </c>
-      <c r="F67" s="3">
+      <c r="F67" s="4">
         <v>2636</v>
       </c>
       <c r="G67" s="1">
@@ -5410,9 +5606,12 @@
         <f t="shared" si="2"/>
         <v>3.96</v>
       </c>
-    </row>
-    <row r="68" spans="2:16">
-      <c r="B68" s="4">
+      <c r="Q67" s="3">
+        <v>2280877</v>
+      </c>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="5">
         <v>44861</v>
       </c>
       <c r="C68" s="1">
@@ -5421,10 +5620,10 @@
       <c r="D68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="4">
         <v>27609</v>
       </c>
-      <c r="F68" s="3">
+      <c r="F68" s="4">
         <v>2615</v>
       </c>
       <c r="G68" s="1">
@@ -5460,9 +5659,12 @@
         <f t="shared" si="2"/>
         <v>4.27</v>
       </c>
-    </row>
-    <row r="69" spans="2:16">
-      <c r="B69" s="4">
+      <c r="Q68" s="3">
+        <v>33056477</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="5">
         <v>44860</v>
       </c>
       <c r="C69" s="1">
@@ -5471,10 +5673,10 @@
       <c r="D69" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69" s="4">
         <v>30063</v>
       </c>
-      <c r="F69" s="3">
+      <c r="F69" s="4">
         <v>2904</v>
       </c>
       <c r="G69" s="1">
@@ -5510,9 +5712,12 @@
         <f t="shared" si="2"/>
         <v>3.98</v>
       </c>
-    </row>
-    <row r="70" spans="2:16">
-      <c r="B70" s="4">
+      <c r="Q69" s="3">
+        <v>72396</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="5">
         <v>44859</v>
       </c>
       <c r="C70" s="1">
@@ -5521,10 +5726,10 @@
       <c r="D70" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="4">
         <v>28953</v>
       </c>
-      <c r="F70" s="3">
+      <c r="F70" s="4">
         <v>2817</v>
       </c>
       <c r="G70" s="1">
@@ -5560,9 +5765,12 @@
         <f t="shared" ref="P70:P133" si="5">N70/O70</f>
         <v>4.54</v>
       </c>
-    </row>
-    <row r="71" spans="2:16">
-      <c r="B71" s="4">
+      <c r="Q70" s="3">
+        <v>704386</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="5">
         <v>44858</v>
       </c>
       <c r="C71" s="1">
@@ -5571,10 +5779,10 @@
       <c r="D71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71" s="4">
         <v>28947</v>
       </c>
-      <c r="F71" s="3">
+      <c r="F71" s="4">
         <v>2768</v>
       </c>
       <c r="G71" s="1">
@@ -5610,9 +5818,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="2:16">
-      <c r="B72" s="4">
+      <c r="Q71" s="3">
+        <v>13112664</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="5">
         <v>44857</v>
       </c>
       <c r="C72" s="1">
@@ -5621,10 +5832,10 @@
       <c r="D72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="4">
         <v>29279</v>
       </c>
-      <c r="F72" s="3">
+      <c r="F72" s="4">
         <v>3021</v>
       </c>
       <c r="G72" s="1">
@@ -5660,9 +5871,12 @@
         <f t="shared" si="5"/>
         <v>5.47524752475248</v>
       </c>
-    </row>
-    <row r="73" spans="2:16">
-      <c r="B73" s="4">
+      <c r="Q72" s="3">
+        <v>1878933</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="5">
         <v>44856</v>
       </c>
       <c r="C73" s="1">
@@ -5671,10 +5885,10 @@
       <c r="D73" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="4">
         <v>29084</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="4">
         <v>2810</v>
       </c>
       <c r="G73" s="1">
@@ -5710,9 +5924,12 @@
         <f t="shared" si="5"/>
         <v>3.88118811881188</v>
       </c>
-    </row>
-    <row r="74" spans="2:16">
-      <c r="B74" s="4">
+      <c r="Q73" s="3">
+        <v>811922</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="5">
         <v>44855</v>
       </c>
       <c r="C74" s="1">
@@ -5721,10 +5938,10 @@
       <c r="D74" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="4">
         <v>28637</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="4">
         <v>2794</v>
       </c>
       <c r="G74" s="1">
@@ -5760,9 +5977,12 @@
         <f t="shared" si="5"/>
         <v>4.45</v>
       </c>
-    </row>
-    <row r="75" spans="2:16">
-      <c r="B75" s="4">
+      <c r="Q74" s="3">
+        <v>15189493</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="5">
         <v>44854</v>
       </c>
       <c r="C75" s="1">
@@ -5771,10 +5991,10 @@
       <c r="D75" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="4">
         <v>28741</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="4">
         <v>2769</v>
       </c>
       <c r="G75" s="1">
@@ -5810,9 +6030,12 @@
         <f t="shared" si="5"/>
         <v>3.90909090909091</v>
       </c>
-    </row>
-    <row r="76" spans="2:16">
-      <c r="B76" s="4">
+      <c r="Q75" s="3">
+        <v>4737554</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="5">
         <v>44853</v>
       </c>
       <c r="C76" s="1">
@@ -5821,10 +6044,10 @@
       <c r="D76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="4">
         <v>28322</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="4">
         <v>2794</v>
       </c>
       <c r="G76" s="1">
@@ -5860,9 +6083,12 @@
         <f t="shared" si="5"/>
         <v>4.19</v>
       </c>
-    </row>
-    <row r="77" spans="2:16">
-      <c r="B77" s="4">
+      <c r="Q76" s="3">
+        <v>444069</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="5">
         <v>44852</v>
       </c>
       <c r="C77" s="1">
@@ -5871,10 +6097,10 @@
       <c r="D77" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="4">
         <v>28612</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="4">
         <v>2805</v>
       </c>
       <c r="G77" s="1">
@@ -5910,9 +6136,12 @@
         <f t="shared" si="5"/>
         <v>4.08080808080808</v>
       </c>
-    </row>
-    <row r="78" spans="2:16">
-      <c r="B78" s="4">
+      <c r="Q77" s="3">
+        <v>25349128</v>
+      </c>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="5">
         <v>44851</v>
       </c>
       <c r="C78" s="1">
@@ -5921,10 +6150,10 @@
       <c r="D78" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="4">
         <v>31269</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="4">
         <v>2965</v>
       </c>
       <c r="G78" s="1">
@@ -5960,9 +6189,12 @@
         <f t="shared" si="5"/>
         <v>3.68316831683168</v>
       </c>
-    </row>
-    <row r="79" spans="2:16">
-      <c r="B79" s="4">
+      <c r="Q78" s="3">
+        <v>3893544</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="5">
         <v>44850</v>
       </c>
       <c r="C79" s="1">
@@ -5971,10 +6203,10 @@
       <c r="D79" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="4">
         <v>30459</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="4">
         <v>2854</v>
       </c>
       <c r="G79" s="1">
@@ -6010,9 +6242,12 @@
         <f t="shared" si="5"/>
         <v>3.86</v>
       </c>
-    </row>
-    <row r="80" spans="2:16">
-      <c r="B80" s="4">
+      <c r="Q79" s="3">
+        <v>1567565</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="5">
         <v>44849</v>
       </c>
       <c r="C80" s="1">
@@ -6021,10 +6256,10 @@
       <c r="D80" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="4">
         <v>30403</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="4">
         <v>3123</v>
       </c>
       <c r="G80" s="1">
@@ -6060,9 +6295,12 @@
         <f t="shared" si="5"/>
         <v>4.84848484848485</v>
       </c>
-    </row>
-    <row r="81" spans="2:16">
-      <c r="B81" s="4">
+      <c r="Q80" s="3">
+        <v>20400979</v>
+      </c>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="5">
         <v>44848</v>
       </c>
       <c r="C81" s="1">
@@ -6071,10 +6309,10 @@
       <c r="D81" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="4">
         <v>28906</v>
       </c>
-      <c r="F81" s="3">
+      <c r="F81" s="4">
         <v>2752</v>
       </c>
       <c r="G81" s="1">
@@ -6110,9 +6348,12 @@
         <f t="shared" si="5"/>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="82" spans="2:16">
-      <c r="B82" s="4">
+      <c r="Q81" s="3">
+        <v>53759851</v>
+      </c>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="5">
         <v>44847</v>
       </c>
       <c r="C82" s="1">
@@ -6121,10 +6362,10 @@
       <c r="D82" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="4">
         <v>27197</v>
       </c>
-      <c r="F82" s="3">
+      <c r="F82" s="4">
         <v>2677</v>
       </c>
       <c r="G82" s="1">
@@ -6160,9 +6401,12 @@
         <f t="shared" si="5"/>
         <v>4.1980198019802</v>
       </c>
-    </row>
-    <row r="83" spans="2:16">
-      <c r="B83" s="4">
+      <c r="Q82" s="3">
+        <v>34832354</v>
+      </c>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="5">
         <v>44846</v>
       </c>
       <c r="C83" s="1">
@@ -6171,10 +6415,10 @@
       <c r="D83" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="4">
         <v>29151</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="4">
         <v>2947</v>
       </c>
       <c r="G83" s="1">
@@ -6210,9 +6454,12 @@
         <f t="shared" si="5"/>
         <v>4.86</v>
       </c>
-    </row>
-    <row r="84" spans="2:16">
-      <c r="B84" s="4">
+      <c r="Q83" s="3">
+        <v>1808092</v>
+      </c>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="5">
         <v>44845</v>
       </c>
       <c r="C84" s="1">
@@ -6221,10 +6468,10 @@
       <c r="D84" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="4">
         <v>28575</v>
       </c>
-      <c r="F84" s="3">
+      <c r="F84" s="4">
         <v>2752</v>
       </c>
       <c r="G84" s="1">
@@ -6260,9 +6507,12 @@
         <f t="shared" si="5"/>
         <v>4.04</v>
       </c>
-    </row>
-    <row r="85" spans="2:16">
-      <c r="B85" s="4">
+      <c r="Q84" s="3">
+        <v>57094711</v>
+      </c>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="5">
         <v>44844</v>
       </c>
       <c r="C85" s="1">
@@ -6271,10 +6521,10 @@
       <c r="D85" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="4">
         <v>26878</v>
       </c>
-      <c r="F85" s="3">
+      <c r="F85" s="4">
         <v>2654</v>
       </c>
       <c r="G85" s="1">
@@ -6310,9 +6560,12 @@
         <f t="shared" si="5"/>
         <v>4.64</v>
       </c>
-    </row>
-    <row r="86" spans="2:16">
-      <c r="B86" s="4">
+      <c r="Q85" s="3">
+        <v>50141455</v>
+      </c>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="5">
         <v>44843</v>
       </c>
       <c r="C86" s="1">
@@ -6321,10 +6574,10 @@
       <c r="D86" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="4">
         <v>28408</v>
       </c>
-      <c r="F86" s="3">
+      <c r="F86" s="4">
         <v>2668</v>
       </c>
       <c r="G86" s="1">
@@ -6360,9 +6613,12 @@
         <f t="shared" si="5"/>
         <v>4.61</v>
       </c>
-    </row>
-    <row r="87" spans="2:16">
-      <c r="B87" s="4">
+      <c r="Q86" s="3">
+        <v>726642</v>
+      </c>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="5">
         <v>44842</v>
       </c>
       <c r="C87" s="1">
@@ -6371,10 +6627,10 @@
       <c r="D87" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="4">
         <v>26905</v>
       </c>
-      <c r="F87" s="3">
+      <c r="F87" s="4">
         <v>2642</v>
       </c>
       <c r="G87" s="1">
@@ -6410,9 +6666,12 @@
         <f t="shared" si="5"/>
         <v>4.46464646464646</v>
       </c>
-    </row>
-    <row r="88" spans="2:16">
-      <c r="B88" s="4">
+      <c r="Q87" s="3">
+        <v>977544</v>
+      </c>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="5">
         <v>44841</v>
       </c>
       <c r="C88" s="1">
@@ -6421,10 +6680,10 @@
       <c r="D88" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="4">
         <v>29026</v>
       </c>
-      <c r="F88" s="3">
+      <c r="F88" s="4">
         <v>2840</v>
       </c>
       <c r="G88" s="1">
@@ -6460,9 +6719,12 @@
         <f t="shared" si="5"/>
         <v>4.95</v>
       </c>
-    </row>
-    <row r="89" spans="2:16">
-      <c r="B89" s="4">
+      <c r="Q88" s="3">
+        <v>1098188</v>
+      </c>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="5">
         <v>44840</v>
       </c>
       <c r="C89" s="1">
@@ -6471,10 +6733,10 @@
       <c r="D89" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="4">
         <v>32522</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="4">
         <v>2987</v>
       </c>
       <c r="G89" s="1">
@@ -6510,9 +6772,12 @@
         <f t="shared" si="5"/>
         <v>3.57575757575758</v>
       </c>
-    </row>
-    <row r="90" spans="2:16">
-      <c r="B90" s="4">
+      <c r="Q89" s="3">
+        <v>519428</v>
+      </c>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="5">
         <v>44839</v>
       </c>
       <c r="C90" s="1">
@@ -6521,10 +6786,10 @@
       <c r="D90" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="4">
         <v>30935</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="4">
         <v>2885</v>
       </c>
       <c r="G90" s="1">
@@ -6560,9 +6825,12 @@
         <f t="shared" si="5"/>
         <v>3.86</v>
       </c>
-    </row>
-    <row r="91" spans="2:16">
-      <c r="B91" s="4">
+      <c r="Q90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="5">
         <v>44838</v>
       </c>
       <c r="C91" s="1">
@@ -6571,10 +6839,10 @@
       <c r="D91" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="4">
         <v>32014</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="4">
         <v>3060</v>
       </c>
       <c r="G91" s="1">
@@ -6610,9 +6878,12 @@
         <f t="shared" si="5"/>
         <v>4.4040404040404</v>
       </c>
-    </row>
-    <row r="92" spans="2:16">
-      <c r="B92" s="4">
+      <c r="Q91" s="3">
+        <v>520067</v>
+      </c>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="5">
         <v>44837</v>
       </c>
       <c r="C92" s="1">
@@ -6621,10 +6892,10 @@
       <c r="D92" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="4">
         <v>32288</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="4">
         <v>2969</v>
       </c>
       <c r="G92" s="1">
@@ -6660,9 +6931,12 @@
         <f t="shared" si="5"/>
         <v>3.87254901960784</v>
       </c>
-    </row>
-    <row r="93" spans="2:16">
-      <c r="B93" s="4">
+      <c r="Q92" s="3">
+        <v>2773263</v>
+      </c>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="5">
         <v>44836</v>
       </c>
       <c r="C93" s="1">
@@ -6671,10 +6945,10 @@
       <c r="D93" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="4">
         <v>30088</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="4">
         <v>2775</v>
       </c>
       <c r="G93" s="1">
@@ -6710,9 +6984,12 @@
         <f t="shared" si="5"/>
         <v>3.93</v>
       </c>
-    </row>
-    <row r="94" spans="2:16">
-      <c r="B94" s="4">
+      <c r="Q93" s="3">
+        <v>415457</v>
+      </c>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="5">
         <v>44835</v>
       </c>
       <c r="C94" s="1">
@@ -6721,10 +6998,10 @@
       <c r="D94" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="4">
         <v>28202</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="4">
         <v>2696</v>
       </c>
       <c r="G94" s="1">
@@ -6760,9 +7037,12 @@
         <f t="shared" si="5"/>
         <v>4.3469387755102</v>
       </c>
-    </row>
-    <row r="95" spans="2:16">
-      <c r="B95" s="4">
+      <c r="Q94" s="3">
+        <v>70957750</v>
+      </c>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="5">
         <v>44834</v>
       </c>
       <c r="C95" s="1">
@@ -6771,10 +7051,10 @@
       <c r="D95" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="4">
         <v>31223</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="4">
         <v>2859</v>
       </c>
       <c r="G95" s="1">
@@ -6810,9 +7090,12 @@
         <f t="shared" si="5"/>
         <v>3.88118811881188</v>
       </c>
-    </row>
-    <row r="96" spans="2:16">
-      <c r="B96" s="4">
+      <c r="Q95" s="3">
+        <v>622924</v>
+      </c>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="5">
         <v>44833</v>
       </c>
       <c r="C96" s="1">
@@ -6821,10 +7104,10 @@
       <c r="D96" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="4">
         <v>30477</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="4">
         <v>2829</v>
       </c>
       <c r="G96" s="1">
@@ -6860,9 +7143,12 @@
         <f t="shared" si="5"/>
         <v>4.21</v>
       </c>
-    </row>
-    <row r="97" spans="2:16">
-      <c r="B97" s="4">
+      <c r="Q96" s="3">
+        <v>101839</v>
+      </c>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="5">
         <v>44832</v>
       </c>
       <c r="C97" s="1">
@@ -6871,10 +7157,10 @@
       <c r="D97" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97" s="4">
         <v>31355</v>
       </c>
-      <c r="F97" s="3">
+      <c r="F97" s="4">
         <v>3007</v>
       </c>
       <c r="G97" s="1">
@@ -6910,9 +7196,12 @@
         <f t="shared" si="5"/>
         <v>4.20408163265306</v>
       </c>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="4">
+      <c r="Q97" s="3">
+        <v>171456</v>
+      </c>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="5">
         <v>44831</v>
       </c>
       <c r="C98" s="1">
@@ -6921,10 +7210,10 @@
       <c r="D98" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98" s="4">
         <v>30985</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="4">
         <v>2888</v>
       </c>
       <c r="G98" s="1">
@@ -6960,9 +7249,12 @@
         <f t="shared" si="5"/>
         <v>4.34343434343434</v>
       </c>
-    </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="4">
+      <c r="Q98" s="3">
+        <v>331525</v>
+      </c>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="5">
         <v>44830</v>
       </c>
       <c r="C99" s="1">
@@ -6971,10 +7263,10 @@
       <c r="D99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99" s="4">
         <v>31706</v>
       </c>
-      <c r="F99" s="3">
+      <c r="F99" s="4">
         <v>2884</v>
       </c>
       <c r="G99" s="1">
@@ -7010,9 +7302,12 @@
         <f t="shared" si="5"/>
         <v>4.08163265306122</v>
       </c>
-    </row>
-    <row r="100" spans="2:16">
-      <c r="B100" s="4">
+      <c r="Q99" s="3">
+        <v>774000</v>
+      </c>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="5">
         <v>44829</v>
       </c>
       <c r="C100" s="1">
@@ -7021,10 +7316,10 @@
       <c r="D100" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100" s="4">
         <v>28994</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="4">
         <v>2677</v>
       </c>
       <c r="G100" s="1">
@@ -7060,9 +7355,12 @@
         <f t="shared" si="5"/>
         <v>3.96</v>
       </c>
-    </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="4">
+      <c r="Q100" s="3">
+        <v>8780656</v>
+      </c>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" s="5">
         <v>44828</v>
       </c>
       <c r="C101" s="1">
@@ -7071,10 +7369,10 @@
       <c r="D101" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="4">
         <v>32777</v>
       </c>
-      <c r="F101" s="3">
+      <c r="F101" s="4">
         <v>3077</v>
       </c>
       <c r="G101" s="1">
@@ -7110,9 +7408,12 @@
         <f t="shared" si="5"/>
         <v>3.80808080808081</v>
       </c>
-    </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="4">
+      <c r="Q101" s="3">
+        <v>672155</v>
+      </c>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="B102" s="5">
         <v>44827</v>
       </c>
       <c r="C102" s="1">
@@ -7121,10 +7422,10 @@
       <c r="D102" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="4">
         <v>31509</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="4">
         <v>2893</v>
       </c>
       <c r="G102" s="1">
@@ -7160,9 +7461,12 @@
         <f t="shared" si="5"/>
         <v>3.86868686868687</v>
       </c>
-    </row>
-    <row r="103" spans="2:16">
-      <c r="B103" s="4">
+      <c r="Q102" s="3">
+        <v>13158826</v>
+      </c>
+    </row>
+    <row r="103" spans="2:17">
+      <c r="B103" s="5">
         <v>44826</v>
       </c>
       <c r="C103" s="1">
@@ -7171,10 +7475,10 @@
       <c r="D103" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103" s="4">
         <v>34455</v>
       </c>
-      <c r="F103" s="3">
+      <c r="F103" s="4">
         <v>3119</v>
       </c>
       <c r="G103" s="1">
@@ -7210,9 +7514,12 @@
         <f t="shared" si="5"/>
         <v>3.62</v>
       </c>
-    </row>
-    <row r="104" spans="2:16">
-      <c r="B104" s="4">
+      <c r="Q103" s="3">
+        <v>38929141</v>
+      </c>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="B104" s="5">
         <v>44825</v>
       </c>
       <c r="C104" s="1">
@@ -7221,10 +7528,10 @@
       <c r="D104" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104" s="4">
         <v>31976</v>
       </c>
-      <c r="F104" s="3">
+      <c r="F104" s="4">
         <v>2900</v>
       </c>
       <c r="G104" s="1">
@@ -7260,9 +7567,12 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="2:16">
-      <c r="B105" s="4">
+      <c r="Q104" s="3">
+        <v>2861982</v>
+      </c>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="B105" s="5">
         <v>44824</v>
       </c>
       <c r="C105" s="1">
@@ -7271,10 +7581,10 @@
       <c r="D105" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105" s="4">
         <v>31277</v>
       </c>
-      <c r="F105" s="3">
+      <c r="F105" s="4">
         <v>2843</v>
       </c>
       <c r="G105" s="1">
@@ -7310,9 +7620,12 @@
         <f t="shared" si="5"/>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="106" spans="2:16">
-      <c r="B106" s="4">
+      <c r="Q105" s="3">
+        <v>6220739</v>
+      </c>
+    </row>
+    <row r="106" spans="2:17">
+      <c r="B106" s="5">
         <v>44823</v>
       </c>
       <c r="C106" s="1">
@@ -7321,10 +7634,10 @@
       <c r="D106" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="4">
         <v>35050</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="4">
         <v>3430</v>
       </c>
       <c r="G106" s="1">
@@ -7360,9 +7673,12 @@
         <f t="shared" si="5"/>
         <v>4.51</v>
       </c>
-    </row>
-    <row r="107" spans="2:16">
-      <c r="B107" s="4">
+      <c r="Q106" s="3">
+        <v>354532</v>
+      </c>
+    </row>
+    <row r="107" spans="2:17">
+      <c r="B107" s="5">
         <v>44822</v>
       </c>
       <c r="C107" s="1">
@@ -7371,10 +7687,10 @@
       <c r="D107" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="4">
         <v>33102</v>
       </c>
-      <c r="F107" s="3">
+      <c r="F107" s="4">
         <v>3038</v>
       </c>
       <c r="G107" s="1">
@@ -7410,9 +7726,12 @@
         <f t="shared" si="5"/>
         <v>3.64646464646465</v>
       </c>
-    </row>
-    <row r="108" spans="2:16">
-      <c r="B108" s="4">
+      <c r="Q107" s="3">
+        <v>22399126</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17">
+      <c r="B108" s="5">
         <v>44821</v>
       </c>
       <c r="C108" s="1">
@@ -7421,10 +7740,10 @@
       <c r="D108" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="4">
         <v>33418</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="4">
         <v>3073</v>
       </c>
       <c r="G108" s="1">
@@ -7460,9 +7779,12 @@
         <f t="shared" si="5"/>
         <v>3.58585858585859</v>
       </c>
-    </row>
-    <row r="109" spans="2:16">
-      <c r="B109" s="4">
+      <c r="Q108" s="3">
+        <v>834005</v>
+      </c>
+    </row>
+    <row r="109" spans="2:17">
+      <c r="B109" s="5">
         <v>44820</v>
       </c>
       <c r="C109" s="1">
@@ -7471,10 +7793,10 @@
       <c r="D109" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="4">
         <v>37309</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="4">
         <v>4130</v>
       </c>
       <c r="G109" s="1">
@@ -7510,9 +7832,12 @@
         <f t="shared" si="5"/>
         <v>5.99</v>
       </c>
-    </row>
-    <row r="110" spans="2:16">
-      <c r="B110" s="4">
+      <c r="Q109" s="3">
+        <v>38034</v>
+      </c>
+    </row>
+    <row r="110" spans="2:17">
+      <c r="B110" s="5">
         <v>44819</v>
       </c>
       <c r="C110" s="1">
@@ -7521,10 +7846,10 @@
       <c r="D110" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="4">
         <v>33344</v>
       </c>
-      <c r="F110" s="3">
+      <c r="F110" s="4">
         <v>3011</v>
       </c>
       <c r="G110" s="1">
@@ -7560,9 +7885,12 @@
         <f t="shared" si="5"/>
         <v>3.64646464646465</v>
       </c>
-    </row>
-    <row r="111" spans="2:16">
-      <c r="B111" s="4">
+      <c r="Q110" s="3">
+        <v>20311261</v>
+      </c>
+    </row>
+    <row r="111" spans="2:17">
+      <c r="B111" s="5">
         <v>44818</v>
       </c>
       <c r="C111" s="1">
@@ -7571,10 +7899,10 @@
       <c r="D111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="4">
         <v>32142</v>
       </c>
-      <c r="F111" s="3">
+      <c r="F111" s="4">
         <v>2938</v>
       </c>
       <c r="G111" s="1">
@@ -7610,9 +7938,12 @@
         <f t="shared" si="5"/>
         <v>3.95959595959596</v>
       </c>
-    </row>
-    <row r="112" spans="2:16">
-      <c r="B112" s="4">
+      <c r="Q111" s="3">
+        <v>1007823</v>
+      </c>
+    </row>
+    <row r="112" spans="2:17">
+      <c r="B112" s="5">
         <v>44817</v>
       </c>
       <c r="C112" s="1">
@@ -7621,10 +7952,10 @@
       <c r="D112" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112" s="4">
         <v>29497</v>
       </c>
-      <c r="F112" s="3">
+      <c r="F112" s="4">
         <v>2706</v>
       </c>
       <c r="G112" s="1">
@@ -7660,9 +7991,12 @@
         <f t="shared" si="5"/>
         <v>4.24</v>
       </c>
-    </row>
-    <row r="113" spans="2:16">
-      <c r="B113" s="4">
+      <c r="Q112" s="3">
+        <v>27832836</v>
+      </c>
+    </row>
+    <row r="113" spans="2:17">
+      <c r="B113" s="5">
         <v>44816</v>
       </c>
       <c r="C113" s="1">
@@ -7671,10 +8005,10 @@
       <c r="D113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113" s="4">
         <v>29147</v>
       </c>
-      <c r="F113" s="3">
+      <c r="F113" s="4">
         <v>2883</v>
       </c>
       <c r="G113" s="1">
@@ -7710,9 +8044,12 @@
         <f t="shared" si="5"/>
         <v>4.87</v>
       </c>
-    </row>
-    <row r="114" spans="2:16">
-      <c r="B114" s="4">
+      <c r="Q113" s="3">
+        <v>1178694</v>
+      </c>
+    </row>
+    <row r="114" spans="2:17">
+      <c r="B114" s="5">
         <v>44815</v>
       </c>
       <c r="C114" s="1">
@@ -7721,10 +8058,10 @@
       <c r="D114" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114" s="4">
         <v>27887</v>
       </c>
-      <c r="F114" s="3">
+      <c r="F114" s="4">
         <v>2675</v>
       </c>
       <c r="G114" s="1">
@@ -7760,9 +8097,12 @@
         <f t="shared" si="5"/>
         <v>4.44444444444444</v>
       </c>
-    </row>
-    <row r="115" spans="2:16">
-      <c r="B115" s="4">
+      <c r="Q114" s="3">
+        <v>620778</v>
+      </c>
+    </row>
+    <row r="115" spans="2:17">
+      <c r="B115" s="5">
         <v>44814</v>
       </c>
       <c r="C115" s="1">
@@ -7771,10 +8111,10 @@
       <c r="D115" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115" s="4">
         <v>29237</v>
       </c>
-      <c r="F115" s="3">
+      <c r="F115" s="4">
         <v>2777</v>
       </c>
       <c r="G115" s="1">
@@ -7810,9 +8150,12 @@
         <f t="shared" si="5"/>
         <v>4.35</v>
       </c>
-    </row>
-    <row r="116" spans="2:16">
-      <c r="B116" s="4">
+      <c r="Q115" s="3">
+        <v>1018661</v>
+      </c>
+    </row>
+    <row r="116" spans="2:17">
+      <c r="B116" s="5">
         <v>44813</v>
       </c>
       <c r="C116" s="1">
@@ -7821,10 +8164,10 @@
       <c r="D116" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116" s="4">
         <v>32172</v>
       </c>
-      <c r="F116" s="3">
+      <c r="F116" s="4">
         <v>2909</v>
       </c>
       <c r="G116" s="1">
@@ -7860,9 +8203,12 @@
         <f t="shared" si="5"/>
         <v>3.80808080808081</v>
       </c>
-    </row>
-    <row r="117" spans="2:16">
-      <c r="B117" s="4">
+      <c r="Q116" s="3">
+        <v>37219937</v>
+      </c>
+    </row>
+    <row r="117" spans="2:17">
+      <c r="B117" s="5">
         <v>44812</v>
       </c>
       <c r="C117" s="1">
@@ -7871,10 +8217,10 @@
       <c r="D117" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117" s="4">
         <v>31962</v>
       </c>
-      <c r="F117" s="3">
+      <c r="F117" s="4">
         <v>3001</v>
       </c>
       <c r="G117" s="1">
@@ -7910,9 +8256,12 @@
         <f t="shared" si="5"/>
         <v>4.4040404040404</v>
       </c>
-    </row>
-    <row r="118" spans="2:16">
-      <c r="B118" s="4">
+      <c r="Q117" s="3">
+        <v>191087771</v>
+      </c>
+    </row>
+    <row r="118" spans="2:17">
+      <c r="B118" s="5">
         <v>44811</v>
       </c>
       <c r="C118" s="1">
@@ -7921,10 +8270,10 @@
       <c r="D118" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118" s="4">
         <v>30992</v>
       </c>
-      <c r="F118" s="3">
+      <c r="F118" s="4">
         <v>2873</v>
       </c>
       <c r="G118" s="1">
@@ -7960,9 +8309,12 @@
         <f t="shared" si="5"/>
         <v>4.35353535353535</v>
       </c>
-    </row>
-    <row r="119" spans="2:16">
-      <c r="B119" s="4">
+      <c r="Q118" s="3">
+        <v>168700</v>
+      </c>
+    </row>
+    <row r="119" spans="2:17">
+      <c r="B119" s="5">
         <v>44810</v>
       </c>
       <c r="C119" s="1">
@@ -7971,10 +8323,10 @@
       <c r="D119" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E119" s="3">
+      <c r="E119" s="4">
         <v>32734</v>
       </c>
-      <c r="F119" s="3">
+      <c r="F119" s="4">
         <v>3022</v>
       </c>
       <c r="G119" s="1">
@@ -8010,9 +8362,12 @@
         <f t="shared" si="5"/>
         <v>4.65</v>
       </c>
-    </row>
-    <row r="120" spans="2:16">
-      <c r="B120" s="4">
+      <c r="Q119" s="3">
+        <v>295148</v>
+      </c>
+    </row>
+    <row r="120" spans="2:17">
+      <c r="B120" s="5">
         <v>44809</v>
       </c>
       <c r="C120" s="1">
@@ -8021,10 +8376,10 @@
       <c r="D120" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E120" s="3">
+      <c r="E120" s="4">
         <v>32733</v>
       </c>
-      <c r="F120" s="3">
+      <c r="F120" s="4">
         <v>2970</v>
       </c>
       <c r="G120" s="1">
@@ -8060,9 +8415,12 @@
         <f t="shared" si="5"/>
         <v>4.27722772277228</v>
       </c>
-    </row>
-    <row r="121" spans="2:16">
-      <c r="B121" s="4">
+      <c r="Q120" s="3">
+        <v>331753</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17">
+      <c r="B121" s="5">
         <v>44808</v>
       </c>
       <c r="C121" s="1">
@@ -8071,10 +8429,10 @@
       <c r="D121" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E121" s="3">
+      <c r="E121" s="4">
         <v>32018</v>
       </c>
-      <c r="F121" s="3">
+      <c r="F121" s="4">
         <v>2889</v>
       </c>
       <c r="G121" s="1">
@@ -8110,9 +8468,12 @@
         <f t="shared" si="5"/>
         <v>4.05050505050505</v>
       </c>
-    </row>
-    <row r="122" spans="2:16">
-      <c r="B122" s="4">
+      <c r="Q121" s="3">
+        <v>15269346</v>
+      </c>
+    </row>
+    <row r="122" spans="2:17">
+      <c r="B122" s="5">
         <v>44807</v>
       </c>
       <c r="C122" s="1">
@@ -8121,10 +8482,10 @@
       <c r="D122" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E122" s="4">
         <v>31191</v>
       </c>
-      <c r="F122" s="3">
+      <c r="F122" s="4">
         <v>2877</v>
       </c>
       <c r="G122" s="1">
@@ -8160,9 +8521,12 @@
         <f t="shared" si="5"/>
         <v>4.91</v>
       </c>
-    </row>
-    <row r="123" spans="2:16">
-      <c r="B123" s="4">
+      <c r="Q122" s="3">
+        <v>800734</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17">
+      <c r="B123" s="5">
         <v>44806</v>
       </c>
       <c r="C123" s="1">
@@ -8171,10 +8535,10 @@
       <c r="D123" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="3">
+      <c r="E123" s="4">
         <v>35724</v>
       </c>
-      <c r="F123" s="3">
+      <c r="F123" s="4">
         <v>3149</v>
       </c>
       <c r="G123" s="1">
@@ -8210,9 +8574,12 @@
         <f t="shared" si="5"/>
         <v>3.7029702970297</v>
       </c>
-    </row>
-    <row r="124" spans="2:16">
-      <c r="B124" s="4">
+      <c r="Q123" s="3">
+        <v>10554644</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17">
+      <c r="B124" s="5">
         <v>44805</v>
       </c>
       <c r="C124" s="1">
@@ -8221,10 +8588,10 @@
       <c r="D124" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E124" s="3">
+      <c r="E124" s="4">
         <v>31903</v>
       </c>
-      <c r="F124" s="3">
+      <c r="F124" s="4">
         <v>2928</v>
       </c>
       <c r="G124" s="1">
@@ -8260,9 +8627,12 @@
         <f t="shared" si="5"/>
         <v>4.27272727272727</v>
       </c>
-    </row>
-    <row r="125" spans="2:16">
-      <c r="B125" s="4">
+      <c r="Q124" s="3">
+        <v>2000715</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17">
+      <c r="B125" s="5">
         <v>44804</v>
       </c>
       <c r="C125" s="1">
@@ -8271,10 +8641,10 @@
       <c r="D125" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="3">
+      <c r="E125" s="4">
         <v>35343</v>
       </c>
-      <c r="F125" s="3">
+      <c r="F125" s="4">
         <v>3166</v>
       </c>
       <c r="G125" s="1">
@@ -8310,9 +8680,12 @@
         <f t="shared" si="5"/>
         <v>4.77</v>
       </c>
-    </row>
-    <row r="126" spans="2:16">
-      <c r="B126" s="4">
+      <c r="Q125" s="3">
+        <v>16204739</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
+      <c r="B126" s="5">
         <v>44803</v>
       </c>
       <c r="C126" s="1">
@@ -8321,10 +8694,10 @@
       <c r="D126" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E126" s="3">
+      <c r="E126" s="4">
         <v>33660</v>
       </c>
-      <c r="F126" s="3">
+      <c r="F126" s="4">
         <v>3009</v>
       </c>
       <c r="G126" s="1">
@@ -8360,9 +8733,12 @@
         <f t="shared" si="5"/>
         <v>3.99009900990099</v>
       </c>
-    </row>
-    <row r="127" spans="2:16">
-      <c r="B127" s="4">
+      <c r="Q126" s="3">
+        <v>3858839</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17">
+      <c r="B127" s="5">
         <v>44802</v>
       </c>
       <c r="C127" s="1">
@@ -8371,10 +8747,10 @@
       <c r="D127" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="3">
+      <c r="E127" s="4">
         <v>34281</v>
       </c>
-      <c r="F127" s="3">
+      <c r="F127" s="4">
         <v>3072</v>
       </c>
       <c r="G127" s="1">
@@ -8410,9 +8786,12 @@
         <f t="shared" si="5"/>
         <v>3.81</v>
       </c>
-    </row>
-    <row r="128" spans="2:16">
-      <c r="B128" s="4">
+      <c r="Q127" s="3">
+        <v>45699591</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17">
+      <c r="B128" s="5">
         <v>44801</v>
       </c>
       <c r="C128" s="1">
@@ -8421,10 +8800,10 @@
       <c r="D128" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E128" s="3">
+      <c r="E128" s="4">
         <v>30214</v>
       </c>
-      <c r="F128" s="3">
+      <c r="F128" s="4">
         <v>2866</v>
       </c>
       <c r="G128" s="1">
@@ -8460,9 +8839,12 @@
         <f t="shared" si="5"/>
         <v>4.89108910891089</v>
       </c>
-    </row>
-    <row r="129" spans="2:16">
-      <c r="B129" s="4">
+      <c r="Q128" s="3">
+        <v>556178</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17">
+      <c r="B129" s="5">
         <v>44800</v>
       </c>
       <c r="C129" s="1">
@@ -8471,10 +8853,10 @@
       <c r="D129" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E129" s="3">
+      <c r="E129" s="4">
         <v>31241</v>
       </c>
-      <c r="F129" s="3">
+      <c r="F129" s="4">
         <v>2784</v>
       </c>
       <c r="G129" s="1">
@@ -8510,9 +8892,12 @@
         <f t="shared" si="5"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="130" spans="2:16">
-      <c r="B130" s="4">
+      <c r="Q129" s="3">
+        <v>89666</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17">
+      <c r="B130" s="5">
         <v>44799</v>
       </c>
       <c r="C130" s="1">
@@ -8521,10 +8906,10 @@
       <c r="D130" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E130" s="3">
+      <c r="E130" s="4">
         <v>34716</v>
       </c>
-      <c r="F130" s="3">
+      <c r="F130" s="4">
         <v>3046</v>
       </c>
       <c r="G130" s="1">
@@ -8560,9 +8945,12 @@
         <f t="shared" si="5"/>
         <v>3.98989898989899</v>
       </c>
-    </row>
-    <row r="131" spans="2:16">
-      <c r="B131" s="4">
+      <c r="Q130" s="3">
+        <v>2212193</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17">
+      <c r="B131" s="5">
         <v>44798</v>
       </c>
       <c r="C131" s="1">
@@ -8571,10 +8959,10 @@
       <c r="D131" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E131" s="3">
+      <c r="E131" s="4">
         <v>36737</v>
       </c>
-      <c r="F131" s="3">
+      <c r="F131" s="4">
         <v>3175</v>
       </c>
       <c r="G131" s="1">
@@ -8610,9 +8998,12 @@
         <f t="shared" si="5"/>
         <v>3.87128712871287</v>
       </c>
-    </row>
-    <row r="132" spans="2:16">
-      <c r="B132" s="4">
+      <c r="Q131" s="3">
+        <v>3081501</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17">
+      <c r="B132" s="5">
         <v>44797</v>
       </c>
       <c r="C132" s="1">
@@ -8621,10 +9012,10 @@
       <c r="D132" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E132" s="3">
+      <c r="E132" s="4">
         <v>33700</v>
       </c>
-      <c r="F132" s="3">
+      <c r="F132" s="4">
         <v>2927</v>
       </c>
       <c r="G132" s="1">
@@ -8660,9 +9051,12 @@
         <f t="shared" si="5"/>
         <v>4.22</v>
       </c>
-    </row>
-    <row r="133" spans="2:16">
-      <c r="B133" s="4">
+      <c r="Q132" s="3">
+        <v>1636137</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17">
+      <c r="B133" s="5">
         <v>44796</v>
       </c>
       <c r="C133" s="1">
@@ -8671,10 +9065,10 @@
       <c r="D133" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E133" s="3">
+      <c r="E133" s="4">
         <v>33549</v>
       </c>
-      <c r="F133" s="3">
+      <c r="F133" s="4">
         <v>2933</v>
       </c>
       <c r="G133" s="1">
@@ -8710,9 +9104,12 @@
         <f t="shared" si="5"/>
         <v>4.58585858585859</v>
       </c>
-    </row>
-    <row r="134" spans="2:16">
-      <c r="B134" s="4">
+      <c r="Q133" s="3">
+        <v>4248524</v>
+      </c>
+    </row>
+    <row r="134" spans="2:17">
+      <c r="B134" s="5">
         <v>44795</v>
       </c>
       <c r="C134" s="1">
@@ -8721,10 +9118,10 @@
       <c r="D134" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="4">
         <v>35888</v>
       </c>
-      <c r="F134" s="3">
+      <c r="F134" s="4">
         <v>3123</v>
       </c>
       <c r="G134" s="1">
@@ -8760,9 +9157,12 @@
         <f t="shared" ref="P134:P197" si="8">N134/O134</f>
         <v>3.7979797979798</v>
       </c>
-    </row>
-    <row r="135" spans="2:16">
-      <c r="B135" s="4">
+      <c r="Q134" s="3">
+        <v>6450895</v>
+      </c>
+    </row>
+    <row r="135" spans="2:17">
+      <c r="B135" s="5">
         <v>44794</v>
       </c>
       <c r="C135" s="1">
@@ -8771,10 +9171,10 @@
       <c r="D135" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="4">
         <v>35617</v>
       </c>
-      <c r="F135" s="3">
+      <c r="F135" s="4">
         <v>3186</v>
       </c>
       <c r="G135" s="1">
@@ -8810,9 +9210,12 @@
         <f t="shared" si="8"/>
         <v>4.37</v>
       </c>
-    </row>
-    <row r="136" spans="2:16">
-      <c r="B136" s="4">
+      <c r="Q135" s="3">
+        <v>41089558</v>
+      </c>
+    </row>
+    <row r="136" spans="2:17">
+      <c r="B136" s="5">
         <v>44793</v>
       </c>
       <c r="C136" s="1">
@@ -8821,10 +9224,10 @@
       <c r="D136" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="4">
         <v>38245</v>
       </c>
-      <c r="F136" s="3">
+      <c r="F136" s="4">
         <v>3249</v>
       </c>
       <c r="G136" s="1">
@@ -8860,9 +9263,12 @@
         <f t="shared" si="8"/>
         <v>3.48514851485148</v>
       </c>
-    </row>
-    <row r="137" spans="2:16">
-      <c r="B137" s="4">
+      <c r="Q136" s="3">
+        <v>19442315</v>
+      </c>
+    </row>
+    <row r="137" spans="2:17">
+      <c r="B137" s="5">
         <v>44792</v>
       </c>
       <c r="C137" s="1">
@@ -8871,10 +9277,10 @@
       <c r="D137" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="4">
         <v>33965</v>
       </c>
-      <c r="F137" s="3">
+      <c r="F137" s="4">
         <v>2987</v>
       </c>
       <c r="G137" s="1">
@@ -8910,9 +9316,12 @@
         <f t="shared" si="8"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="138" spans="2:16">
-      <c r="B138" s="4">
+      <c r="Q137" s="3">
+        <v>720506</v>
+      </c>
+    </row>
+    <row r="138" spans="2:17">
+      <c r="B138" s="5">
         <v>44791</v>
       </c>
       <c r="C138" s="1">
@@ -8921,10 +9330,10 @@
       <c r="D138" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="4">
         <v>34938</v>
       </c>
-      <c r="F138" s="3">
+      <c r="F138" s="4">
         <v>3172</v>
       </c>
       <c r="G138" s="1">
@@ -8960,9 +9369,12 @@
         <f t="shared" si="8"/>
         <v>4.13861386138614</v>
       </c>
-    </row>
-    <row r="139" spans="2:16">
-      <c r="B139" s="4">
+      <c r="Q138" s="3">
+        <v>243118</v>
+      </c>
+    </row>
+    <row r="139" spans="2:17">
+      <c r="B139" s="5">
         <v>44790</v>
       </c>
       <c r="C139" s="1">
@@ -8971,10 +9383,10 @@
       <c r="D139" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="4">
         <v>35815</v>
       </c>
-      <c r="F139" s="3">
+      <c r="F139" s="4">
         <v>3173</v>
       </c>
       <c r="G139" s="1">
@@ -9010,9 +9422,12 @@
         <f t="shared" si="8"/>
         <v>3.93069306930693</v>
       </c>
-    </row>
-    <row r="140" spans="2:16">
-      <c r="B140" s="4">
+      <c r="Q139" s="3">
+        <v>19945569</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17">
+      <c r="B140" s="5">
         <v>44789</v>
       </c>
       <c r="C140" s="1">
@@ -9021,10 +9436,10 @@
       <c r="D140" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E140" s="3">
+      <c r="E140" s="4">
         <v>35105</v>
       </c>
-      <c r="F140" s="3">
+      <c r="F140" s="4">
         <v>3087</v>
       </c>
       <c r="G140" s="1">
@@ -9060,9 +9475,12 @@
         <f t="shared" si="8"/>
         <v>4.25</v>
       </c>
-    </row>
-    <row r="141" spans="2:16">
-      <c r="B141" s="4">
+      <c r="Q140" s="3">
+        <v>82196</v>
+      </c>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="B141" s="5">
         <v>44788</v>
       </c>
       <c r="C141" s="1">
@@ -9071,10 +9489,10 @@
       <c r="D141" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E141" s="3">
+      <c r="E141" s="4">
         <v>35376</v>
       </c>
-      <c r="F141" s="3">
+      <c r="F141" s="4">
         <v>3180</v>
       </c>
       <c r="G141" s="1">
@@ -9110,9 +9528,12 @@
         <f t="shared" si="8"/>
         <v>4.51</v>
       </c>
-    </row>
-    <row r="142" spans="2:16">
-      <c r="B142" s="4">
+      <c r="Q141" s="3">
+        <v>129054826</v>
+      </c>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="B142" s="5">
         <v>44787</v>
       </c>
       <c r="C142" s="1">
@@ -9121,10 +9542,10 @@
       <c r="D142" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E142" s="3">
+      <c r="E142" s="4">
         <v>31652</v>
       </c>
-      <c r="F142" s="3">
+      <c r="F142" s="4">
         <v>2968</v>
       </c>
       <c r="G142" s="1">
@@ -9160,9 +9581,12 @@
         <f t="shared" si="8"/>
         <v>4.51</v>
       </c>
-    </row>
-    <row r="143" spans="2:16">
-      <c r="B143" s="4">
+      <c r="Q142" s="3">
+        <v>1481504</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17">
+      <c r="B143" s="5">
         <v>44786</v>
       </c>
       <c r="C143" s="1">
@@ -9171,10 +9595,10 @@
       <c r="D143" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E143" s="3">
+      <c r="E143" s="4">
         <v>35276</v>
       </c>
-      <c r="F143" s="3">
+      <c r="F143" s="4">
         <v>3185</v>
       </c>
       <c r="G143" s="1">
@@ -9210,9 +9634,12 @@
         <f t="shared" si="8"/>
         <v>4.77777777777778</v>
       </c>
-    </row>
-    <row r="144" spans="2:16">
-      <c r="B144" s="4">
+      <c r="Q143" s="3">
+        <v>279599</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
+      <c r="B144" s="5">
         <v>44785</v>
       </c>
       <c r="C144" s="1">
@@ -9221,10 +9648,10 @@
       <c r="D144" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E144" s="3">
+      <c r="E144" s="4">
         <v>34198</v>
       </c>
-      <c r="F144" s="3">
+      <c r="F144" s="4">
         <v>3076</v>
       </c>
       <c r="G144" s="1">
@@ -9260,9 +9687,12 @@
         <f t="shared" si="8"/>
         <v>4.39</v>
       </c>
-    </row>
-    <row r="145" spans="2:16">
-      <c r="B145" s="4">
+      <c r="Q144" s="3">
+        <v>41359857</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
+      <c r="B145" s="5">
         <v>44784</v>
       </c>
       <c r="C145" s="1">
@@ -9271,10 +9701,10 @@
       <c r="D145" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E145" s="3">
+      <c r="E145" s="4">
         <v>37301</v>
       </c>
-      <c r="F145" s="3">
+      <c r="F145" s="4">
         <v>3243</v>
       </c>
       <c r="G145" s="1">
@@ -9310,9 +9740,12 @@
         <f t="shared" si="8"/>
         <v>4.08080808080808</v>
       </c>
-    </row>
-    <row r="146" spans="2:16">
-      <c r="B146" s="4">
+      <c r="Q145" s="3">
+        <v>232952</v>
+      </c>
+    </row>
+    <row r="146" spans="2:17">
+      <c r="B146" s="5">
         <v>44783</v>
       </c>
       <c r="C146" s="1">
@@ -9321,10 +9754,10 @@
       <c r="D146" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E146" s="3">
+      <c r="E146" s="4">
         <v>37654</v>
       </c>
-      <c r="F146" s="3">
+      <c r="F146" s="4">
         <v>3312</v>
       </c>
       <c r="G146" s="1">
@@ -9360,9 +9793,12 @@
         <f t="shared" si="8"/>
         <v>4.31</v>
       </c>
-    </row>
-    <row r="147" spans="2:16">
-      <c r="B147" s="4">
+      <c r="Q146" s="3">
+        <v>946281</v>
+      </c>
+    </row>
+    <row r="147" spans="2:17">
+      <c r="B147" s="5">
         <v>44782</v>
       </c>
       <c r="C147" s="1">
@@ -9371,10 +9807,10 @@
       <c r="D147" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E147" s="4">
         <v>36223</v>
       </c>
-      <c r="F147" s="3">
+      <c r="F147" s="4">
         <v>3019</v>
       </c>
       <c r="G147" s="1">
@@ -9410,9 +9846,12 @@
         <f t="shared" si="8"/>
         <v>4.36363636363636</v>
       </c>
-    </row>
-    <row r="148" spans="2:16">
-      <c r="B148" s="4">
+      <c r="Q147" s="3">
+        <v>2339693</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
+      <c r="B148" s="5">
         <v>44781</v>
       </c>
       <c r="C148" s="1">
@@ -9421,10 +9860,10 @@
       <c r="D148" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E148" s="4">
         <v>35516</v>
       </c>
-      <c r="F148" s="3">
+      <c r="F148" s="4">
         <v>3187</v>
       </c>
       <c r="G148" s="1">
@@ -9460,9 +9899,12 @@
         <f t="shared" si="8"/>
         <v>4.16</v>
       </c>
-    </row>
-    <row r="149" spans="2:16">
-      <c r="B149" s="4">
+      <c r="Q148" s="3">
+        <v>814145</v>
+      </c>
+    </row>
+    <row r="149" spans="2:17">
+      <c r="B149" s="5">
         <v>44780</v>
       </c>
       <c r="C149" s="1">
@@ -9471,10 +9913,10 @@
       <c r="D149" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E149" s="3">
+      <c r="E149" s="4">
         <v>36223</v>
       </c>
-      <c r="F149" s="3">
+      <c r="F149" s="4">
         <v>3190</v>
       </c>
       <c r="G149" s="1">
@@ -9510,9 +9952,12 @@
         <f t="shared" si="8"/>
         <v>4.39</v>
       </c>
-    </row>
-    <row r="150" spans="2:16">
-      <c r="B150" s="4">
+      <c r="Q149" s="3">
+        <v>1289528</v>
+      </c>
+    </row>
+    <row r="150" spans="2:17">
+      <c r="B150" s="5">
         <v>44779</v>
       </c>
       <c r="C150" s="1">
@@ -9521,10 +9966,10 @@
       <c r="D150" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E150" s="3">
+      <c r="E150" s="4">
         <v>38841</v>
       </c>
-      <c r="F150" s="3">
+      <c r="F150" s="4">
         <v>3395</v>
       </c>
       <c r="G150" s="1">
@@ -9560,9 +10005,12 @@
         <f t="shared" si="8"/>
         <v>3.48484848484848</v>
       </c>
-    </row>
-    <row r="151" spans="2:16">
-      <c r="B151" s="4">
+      <c r="Q150" s="3">
+        <v>10490554</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17">
+      <c r="B151" s="5">
         <v>44778</v>
       </c>
       <c r="C151" s="1">
@@ -9571,10 +10019,10 @@
       <c r="D151" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E151" s="3">
+      <c r="E151" s="4">
         <v>37350</v>
       </c>
-      <c r="F151" s="3">
+      <c r="F151" s="4">
         <v>3428</v>
       </c>
       <c r="G151" s="1">
@@ -9610,9 +10058,12 @@
         <f t="shared" si="8"/>
         <v>4.82</v>
       </c>
-    </row>
-    <row r="152" spans="2:16">
-      <c r="B152" s="4">
+      <c r="Q151" s="3">
+        <v>1955438</v>
+      </c>
+    </row>
+    <row r="152" spans="2:17">
+      <c r="B152" s="5">
         <v>44777</v>
       </c>
       <c r="C152" s="1">
@@ -9621,10 +10072,10 @@
       <c r="D152" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E152" s="3">
+      <c r="E152" s="4">
         <v>37229</v>
       </c>
-      <c r="F152" s="3">
+      <c r="F152" s="4">
         <v>3336</v>
       </c>
       <c r="G152" s="1">
@@ -9660,9 +10111,12 @@
         <f t="shared" si="8"/>
         <v>4.14141414141414</v>
       </c>
-    </row>
-    <row r="153" spans="2:16">
-      <c r="B153" s="4">
+      <c r="Q152" s="3">
+        <v>1530733</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17">
+      <c r="B153" s="5">
         <v>44776</v>
       </c>
       <c r="C153" s="1">
@@ -9671,10 +10125,10 @@
       <c r="D153" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="4">
         <v>38381</v>
       </c>
-      <c r="F153" s="3">
+      <c r="F153" s="4">
         <v>3327</v>
       </c>
       <c r="G153" s="1">
@@ -9710,9 +10164,12 @@
         <f t="shared" si="8"/>
         <v>4.37623762376238</v>
       </c>
-    </row>
-    <row r="154" spans="2:16">
-      <c r="B154" s="4">
+      <c r="Q153" s="3">
+        <v>51426255</v>
+      </c>
+    </row>
+    <row r="154" spans="2:17">
+      <c r="B154" s="5">
         <v>44775</v>
       </c>
       <c r="C154" s="1">
@@ -9721,10 +10178,10 @@
       <c r="D154" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E154" s="3">
+      <c r="E154" s="4">
         <v>34909</v>
       </c>
-      <c r="F154" s="3">
+      <c r="F154" s="4">
         <v>3380</v>
       </c>
       <c r="G154" s="1">
@@ -9760,9 +10217,12 @@
         <f t="shared" si="8"/>
         <v>5.4040404040404</v>
       </c>
-    </row>
-    <row r="155" spans="2:16">
-      <c r="B155" s="4">
+      <c r="Q154" s="3">
+        <v>52174</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17">
+      <c r="B155" s="5">
         <v>44774</v>
       </c>
       <c r="C155" s="1">
@@ -9810,9 +10270,12 @@
         <f t="shared" si="8"/>
         <v>4.29</v>
       </c>
-    </row>
-    <row r="156" spans="2:16">
-      <c r="B156" s="4">
+      <c r="Q155" s="3">
+        <v>2002127</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17">
+      <c r="B156" s="5">
         <v>44773</v>
       </c>
       <c r="C156" s="1">
@@ -9860,9 +10323,12 @@
         <f t="shared" si="8"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="2:16">
-      <c r="B157" s="4">
+      <c r="Q156" s="3">
+        <v>402123</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17">
+      <c r="B157" s="5">
         <v>44772</v>
       </c>
       <c r="C157" s="1">
@@ -9910,9 +10376,12 @@
         <f t="shared" si="8"/>
         <v>4.36</v>
       </c>
-    </row>
-    <row r="158" spans="2:16">
-      <c r="B158" s="4">
+      <c r="Q157" s="3">
+        <v>3906671</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17">
+      <c r="B158" s="5">
         <v>44771</v>
       </c>
       <c r="C158" s="1">
@@ -9960,9 +10429,12 @@
         <f t="shared" si="8"/>
         <v>3.95</v>
       </c>
-    </row>
-    <row r="159" spans="2:16">
-      <c r="B159" s="4">
+      <c r="Q158" s="3">
+        <v>5544484</v>
+      </c>
+    </row>
+    <row r="159" spans="2:17">
+      <c r="B159" s="5">
         <v>44770</v>
       </c>
       <c r="C159" s="1">
@@ -10010,9 +10482,12 @@
         <f t="shared" si="8"/>
         <v>4.09090909090909</v>
       </c>
-    </row>
-    <row r="160" spans="2:16">
-      <c r="B160" s="4">
+      <c r="Q159" s="3">
+        <v>1168038</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17">
+      <c r="B160" s="5">
         <v>44769</v>
       </c>
       <c r="C160" s="1">
@@ -10060,9 +10535,12 @@
         <f t="shared" si="8"/>
         <v>4.54545454545455</v>
       </c>
-    </row>
-    <row r="161" spans="2:16">
-      <c r="B161" s="4">
+      <c r="Q160" s="3">
+        <v>1894147</v>
+      </c>
+    </row>
+    <row r="161" spans="2:17">
+      <c r="B161" s="5">
         <v>44768</v>
       </c>
       <c r="C161" s="1">
@@ -10110,9 +10588,12 @@
         <f t="shared" si="8"/>
         <v>4.91089108910891</v>
       </c>
-    </row>
-    <row r="162" spans="2:16">
-      <c r="B162" s="4">
+      <c r="Q161" s="3">
+        <v>427247</v>
+      </c>
+    </row>
+    <row r="162" spans="2:17">
+      <c r="B162" s="5">
         <v>44767</v>
       </c>
       <c r="C162" s="1">
@@ -10160,9 +10641,12 @@
         <f t="shared" si="8"/>
         <v>4.28282828282828</v>
       </c>
-    </row>
-    <row r="163" spans="2:16">
-      <c r="B163" s="4">
+      <c r="Q162" s="3">
+        <v>74984</v>
+      </c>
+    </row>
+    <row r="163" spans="2:17">
+      <c r="B163" s="5">
         <v>44766</v>
       </c>
       <c r="C163" s="1">
@@ -10210,9 +10694,12 @@
         <f t="shared" si="8"/>
         <v>4.29292929292929</v>
       </c>
-    </row>
-    <row r="164" spans="2:16">
-      <c r="B164" s="4">
+      <c r="Q163" s="3">
+        <v>226596368</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17">
+      <c r="B164" s="5">
         <v>44765</v>
       </c>
       <c r="C164" s="1">
@@ -10260,9 +10747,12 @@
         <f t="shared" si="8"/>
         <v>4.32323232323232</v>
       </c>
-    </row>
-    <row r="165" spans="2:16">
-      <c r="B165" s="4">
+      <c r="Q164" s="3">
+        <v>308737</v>
+      </c>
+    </row>
+    <row r="165" spans="2:17">
+      <c r="B165" s="5">
         <v>44764</v>
       </c>
       <c r="C165" s="1">
@@ -10310,9 +10800,12 @@
         <f t="shared" si="8"/>
         <v>4.06</v>
       </c>
-    </row>
-    <row r="166" spans="2:16">
-      <c r="B166" s="4">
+      <c r="Q165" s="3">
+        <v>205722</v>
+      </c>
+    </row>
+    <row r="166" spans="2:17">
+      <c r="B166" s="5">
         <v>44763</v>
       </c>
       <c r="C166" s="1">
@@ -10360,9 +10853,12 @@
         <f t="shared" si="8"/>
         <v>4.11</v>
       </c>
-    </row>
-    <row r="167" spans="2:16">
-      <c r="B167" s="4">
+      <c r="Q166" s="3">
+        <v>295138</v>
+      </c>
+    </row>
+    <row r="167" spans="2:17">
+      <c r="B167" s="5">
         <v>44762</v>
       </c>
       <c r="C167" s="1">
@@ -10410,9 +10906,12 @@
         <f t="shared" si="8"/>
         <v>4.91</v>
       </c>
-    </row>
-    <row r="168" spans="2:16">
-      <c r="B168" s="4">
+      <c r="Q167" s="3">
+        <v>287494</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17">
+      <c r="B168" s="5">
         <v>44761</v>
       </c>
       <c r="C168" s="1">
@@ -10460,9 +10959,12 @@
         <f t="shared" si="8"/>
         <v>4.01010101010101</v>
       </c>
-    </row>
-    <row r="169" spans="2:16">
-      <c r="B169" s="4">
+      <c r="Q168" s="3">
+        <v>9267505</v>
+      </c>
+    </row>
+    <row r="169" spans="2:17">
+      <c r="B169" s="5">
         <v>44760</v>
       </c>
       <c r="C169" s="1">
@@ -10510,9 +11012,12 @@
         <f t="shared" si="8"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="170" spans="2:16">
-      <c r="B170" s="4">
+      <c r="Q169" s="3">
+        <v>2585098</v>
+      </c>
+    </row>
+    <row r="170" spans="2:17">
+      <c r="B170" s="5">
         <v>44759</v>
       </c>
       <c r="C170" s="1">
@@ -10560,9 +11065,12 @@
         <f t="shared" si="8"/>
         <v>4.29292929292929</v>
       </c>
-    </row>
-    <row r="171" spans="2:16">
-      <c r="B171" s="4">
+      <c r="Q170" s="3">
+        <v>1861879</v>
+      </c>
+    </row>
+    <row r="171" spans="2:17">
+      <c r="B171" s="5">
         <v>44758</v>
       </c>
       <c r="C171" s="1">
@@ -10610,9 +11118,12 @@
         <f t="shared" si="8"/>
         <v>4.33</v>
       </c>
-    </row>
-    <row r="172" spans="2:16">
-      <c r="B172" s="4">
+      <c r="Q171" s="3">
+        <v>574188</v>
+      </c>
+    </row>
+    <row r="172" spans="2:17">
+      <c r="B172" s="5">
         <v>44757</v>
       </c>
       <c r="C172" s="1">
@@ -10660,9 +11171,12 @@
         <f t="shared" si="8"/>
         <v>4.61386138613861</v>
       </c>
-    </row>
-    <row r="173" spans="2:16">
-      <c r="B173" s="4">
+      <c r="Q172" s="3">
+        <v>3162851</v>
+      </c>
+    </row>
+    <row r="173" spans="2:17">
+      <c r="B173" s="5">
         <v>44756</v>
       </c>
       <c r="C173" s="1">
@@ -10710,9 +11224,12 @@
         <f t="shared" si="8"/>
         <v>4.65656565656566</v>
       </c>
-    </row>
-    <row r="174" spans="2:16">
-      <c r="B174" s="4">
+      <c r="Q173" s="3">
+        <v>12139363</v>
+      </c>
+    </row>
+    <row r="174" spans="2:17">
+      <c r="B174" s="5">
         <v>44755</v>
       </c>
       <c r="C174" s="1">
@@ -10760,9 +11277,12 @@
         <f t="shared" si="8"/>
         <v>3.80612244897959</v>
       </c>
-    </row>
-    <row r="175" spans="2:16">
-      <c r="B175" s="4">
+      <c r="Q174" s="3">
+        <v>1606490</v>
+      </c>
+    </row>
+    <row r="175" spans="2:17">
+      <c r="B175" s="5">
         <v>44754</v>
       </c>
       <c r="C175" s="1">
@@ -10810,9 +11330,12 @@
         <f t="shared" si="8"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="176" spans="2:16">
-      <c r="B176" s="4">
+      <c r="Q175" s="3">
+        <v>130531484</v>
+      </c>
+    </row>
+    <row r="176" spans="2:17">
+      <c r="B176" s="5">
         <v>44753</v>
       </c>
       <c r="C176" s="1">
@@ -10860,9 +11383,12 @@
         <f t="shared" si="8"/>
         <v>4.48514851485149</v>
       </c>
-    </row>
-    <row r="177" spans="2:16">
-      <c r="B177" s="4">
+      <c r="Q176" s="3">
+        <v>2023575</v>
+      </c>
+    </row>
+    <row r="177" spans="2:17">
+      <c r="B177" s="5">
         <v>44752</v>
       </c>
       <c r="C177" s="1">
@@ -10910,9 +11436,12 @@
         <f t="shared" si="8"/>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="178" spans="2:16">
-      <c r="B178" s="4">
+      <c r="Q177" s="3">
+        <v>1056010</v>
+      </c>
+    </row>
+    <row r="178" spans="2:17">
+      <c r="B178" s="5">
         <v>44751</v>
       </c>
       <c r="C178" s="1">
@@ -10960,9 +11489,12 @@
         <f t="shared" si="8"/>
         <v>4.33663366336634</v>
       </c>
-    </row>
-    <row r="179" spans="2:16">
-      <c r="B179" s="4">
+      <c r="Q178" s="3">
+        <v>724786</v>
+      </c>
+    </row>
+    <row r="179" spans="2:17">
+      <c r="B179" s="5">
         <v>44750</v>
       </c>
       <c r="C179" s="1">
@@ -11010,9 +11542,12 @@
         <f t="shared" si="8"/>
         <v>4.09</v>
       </c>
-    </row>
-    <row r="180" spans="2:16">
-      <c r="B180" s="4">
+      <c r="Q179" s="3">
+        <v>64600528</v>
+      </c>
+    </row>
+    <row r="180" spans="2:17">
+      <c r="B180" s="5">
         <v>44749</v>
       </c>
       <c r="C180" s="1">
@@ -11060,9 +11595,12 @@
         <f t="shared" si="8"/>
         <v>4.43564356435644</v>
       </c>
-    </row>
-    <row r="181" spans="2:16">
-      <c r="B181" s="4">
+      <c r="Q180" s="3">
+        <v>414471</v>
+      </c>
+    </row>
+    <row r="181" spans="2:17">
+      <c r="B181" s="5">
         <v>44748</v>
       </c>
       <c r="C181" s="1">
@@ -11110,9 +11648,12 @@
         <f t="shared" si="8"/>
         <v>4.98</v>
       </c>
-    </row>
-    <row r="182" spans="2:16">
-      <c r="B182" s="4">
+      <c r="Q181" s="3">
+        <v>814535</v>
+      </c>
+    </row>
+    <row r="182" spans="2:17">
+      <c r="B182" s="5">
         <v>44747</v>
       </c>
       <c r="C182" s="1">
@@ -11160,9 +11701,12 @@
         <f t="shared" si="8"/>
         <v>4.03960396039604</v>
       </c>
-    </row>
-    <row r="183" spans="2:16">
-      <c r="B183" s="4">
+      <c r="Q182" s="3">
+        <v>135289140</v>
+      </c>
+    </row>
+    <row r="183" spans="2:17">
+      <c r="B183" s="5">
         <v>44746</v>
       </c>
       <c r="C183" s="1">
@@ -11210,9 +11754,12 @@
         <f t="shared" si="8"/>
         <v>4.75757575757576</v>
       </c>
-    </row>
-    <row r="184" spans="2:16">
-      <c r="B184" s="4">
+      <c r="Q183" s="3">
+        <v>686306</v>
+      </c>
+    </row>
+    <row r="184" spans="2:17">
+      <c r="B184" s="5">
         <v>44745</v>
       </c>
       <c r="C184" s="1">
@@ -11260,9 +11807,12 @@
         <f t="shared" si="8"/>
         <v>4.35353535353535</v>
       </c>
-    </row>
-    <row r="185" spans="2:16">
-      <c r="B185" s="4">
+      <c r="Q184" s="3">
+        <v>1738684</v>
+      </c>
+    </row>
+    <row r="185" spans="2:17">
+      <c r="B185" s="5">
         <v>44744</v>
       </c>
       <c r="C185" s="1">
@@ -11310,9 +11860,12 @@
         <f t="shared" si="8"/>
         <v>4.49</v>
       </c>
-    </row>
-    <row r="186" spans="2:16">
-      <c r="B186" s="4">
+      <c r="Q185" s="3">
+        <v>394773</v>
+      </c>
+    </row>
+    <row r="186" spans="2:17">
+      <c r="B186" s="5">
         <v>44743</v>
       </c>
       <c r="C186" s="1">
@@ -11360,9 +11913,12 @@
         <f t="shared" si="8"/>
         <v>4.02</v>
       </c>
-    </row>
-    <row r="187" spans="2:16">
-      <c r="B187" s="4">
+      <c r="Q186" s="3">
+        <v>1108872</v>
+      </c>
+    </row>
+    <row r="187" spans="2:17">
+      <c r="B187" s="5">
         <v>44742</v>
       </c>
       <c r="C187" s="1">
@@ -11410,9 +11966,12 @@
         <f t="shared" si="8"/>
         <v>4.83838383838384</v>
       </c>
-    </row>
-    <row r="188" spans="2:16">
-      <c r="B188" s="4">
+      <c r="Q187" s="3">
+        <v>1373107</v>
+      </c>
+    </row>
+    <row r="188" spans="2:17">
+      <c r="B188" s="5">
         <v>44741</v>
       </c>
       <c r="C188" s="1">
@@ -11460,9 +12019,12 @@
         <f t="shared" si="8"/>
         <v>5.13131313131313</v>
       </c>
-    </row>
-    <row r="189" spans="2:16">
-      <c r="B189" s="4">
+      <c r="Q188" s="3">
+        <v>31136</v>
+      </c>
+    </row>
+    <row r="189" spans="2:17">
+      <c r="B189" s="5">
         <v>44740</v>
       </c>
       <c r="C189" s="1">
@@ -11510,9 +12072,12 @@
         <f t="shared" si="8"/>
         <v>4.54</v>
       </c>
-    </row>
-    <row r="190" spans="2:16">
-      <c r="B190" s="4">
+      <c r="Q189" s="3">
+        <v>196087</v>
+      </c>
+    </row>
+    <row r="190" spans="2:17">
+      <c r="B190" s="5">
         <v>44739</v>
       </c>
       <c r="C190" s="1">
@@ -11560,9 +12125,12 @@
         <f t="shared" si="8"/>
         <v>4.09090909090909</v>
       </c>
-    </row>
-    <row r="191" spans="2:16">
-      <c r="B191" s="4">
+      <c r="Q190" s="3">
+        <v>8000179</v>
+      </c>
+    </row>
+    <row r="191" spans="2:17">
+      <c r="B191" s="5">
         <v>44738</v>
       </c>
       <c r="C191" s="1">
@@ -11610,9 +12178,12 @@
         <f t="shared" si="8"/>
         <v>3.70707070707071</v>
       </c>
-    </row>
-    <row r="192" spans="2:16">
-      <c r="B192" s="4">
+      <c r="Q191" s="3">
+        <v>2780895</v>
+      </c>
+    </row>
+    <row r="192" spans="2:17">
+      <c r="B192" s="5">
         <v>44737</v>
       </c>
       <c r="C192" s="1">
@@ -11660,9 +12231,12 @@
         <f t="shared" si="8"/>
         <v>4.26732673267327</v>
       </c>
-    </row>
-    <row r="193" spans="2:16">
-      <c r="B193" s="4">
+      <c r="Q192" s="3">
+        <v>87974</v>
+      </c>
+    </row>
+    <row r="193" spans="2:17">
+      <c r="B193" s="5">
         <v>44736</v>
       </c>
       <c r="C193" s="1">
@@ -11710,9 +12284,12 @@
         <f t="shared" si="8"/>
         <v>4.16831683168317</v>
       </c>
-    </row>
-    <row r="194" spans="2:16">
-      <c r="B194" s="4">
+      <c r="Q193" s="3">
+        <v>270393</v>
+      </c>
+    </row>
+    <row r="194" spans="2:17">
+      <c r="B194" s="5">
         <v>44735</v>
       </c>
       <c r="C194" s="1">
@@ -11760,9 +12337,12 @@
         <f t="shared" si="8"/>
         <v>4.11111111111111</v>
       </c>
-    </row>
-    <row r="195" spans="2:16">
-      <c r="B195" s="4">
+      <c r="Q194" s="3">
+        <v>1484879</v>
+      </c>
+    </row>
+    <row r="195" spans="2:17">
+      <c r="B195" s="5">
         <v>44734</v>
       </c>
       <c r="C195" s="1">
@@ -11810,9 +12390,12 @@
         <f t="shared" si="8"/>
         <v>4.26</v>
       </c>
-    </row>
-    <row r="196" spans="2:16">
-      <c r="B196" s="4">
+      <c r="Q195" s="3">
+        <v>5217370</v>
+      </c>
+    </row>
+    <row r="196" spans="2:17">
+      <c r="B196" s="5">
         <v>44733</v>
       </c>
       <c r="C196" s="1">
@@ -11860,9 +12443,12 @@
         <f t="shared" si="8"/>
         <v>4.19</v>
       </c>
-    </row>
-    <row r="197" spans="2:16">
-      <c r="B197" s="4">
+      <c r="Q196" s="3">
+        <v>113594</v>
+      </c>
+    </row>
+    <row r="197" spans="2:17">
+      <c r="B197" s="5">
         <v>44732</v>
       </c>
       <c r="C197" s="1">
@@ -11910,9 +12496,12 @@
         <f t="shared" si="8"/>
         <v>3.96039603960396</v>
       </c>
-    </row>
-    <row r="198" spans="2:16">
-      <c r="B198" s="4">
+      <c r="Q197" s="3">
+        <v>57191675</v>
+      </c>
+    </row>
+    <row r="198" spans="2:17">
+      <c r="B198" s="5">
         <v>44731</v>
       </c>
       <c r="C198" s="1">
@@ -11960,9 +12549,12 @@
         <f t="shared" ref="P198:P261" si="11">N198/O198</f>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="199" spans="2:16">
-      <c r="B199" s="4">
+      <c r="Q198" s="3">
+        <v>2529180</v>
+      </c>
+    </row>
+    <row r="199" spans="2:17">
+      <c r="B199" s="5">
         <v>44730</v>
       </c>
       <c r="C199" s="1">
@@ -12010,9 +12602,12 @@
         <f t="shared" si="11"/>
         <v>4.83</v>
       </c>
-    </row>
-    <row r="200" spans="2:16">
-      <c r="B200" s="4">
+      <c r="Q199" s="3">
+        <v>331714</v>
+      </c>
+    </row>
+    <row r="200" spans="2:17">
+      <c r="B200" s="5">
         <v>44729</v>
       </c>
       <c r="C200" s="1">
@@ -12060,9 +12655,12 @@
         <f t="shared" si="11"/>
         <v>4.13861386138614</v>
       </c>
-    </row>
-    <row r="201" spans="2:16">
-      <c r="B201" s="4">
+      <c r="Q200" s="3">
+        <v>4229918</v>
+      </c>
+    </row>
+    <row r="201" spans="2:17">
+      <c r="B201" s="5">
         <v>44728</v>
       </c>
       <c r="C201" s="1">
@@ -12110,9 +12708,12 @@
         <f t="shared" si="11"/>
         <v>3.88</v>
       </c>
-    </row>
-    <row r="202" spans="2:16">
-      <c r="B202" s="4">
+      <c r="Q201" s="3">
+        <v>1617357</v>
+      </c>
+    </row>
+    <row r="202" spans="2:17">
+      <c r="B202" s="5">
         <v>44727</v>
       </c>
       <c r="C202" s="1">
@@ -12160,9 +12761,12 @@
         <f t="shared" si="11"/>
         <v>4.23</v>
       </c>
-    </row>
-    <row r="203" spans="2:16">
-      <c r="B203" s="4">
+      <c r="Q202" s="3">
+        <v>912120</v>
+      </c>
+    </row>
+    <row r="203" spans="2:17">
+      <c r="B203" s="5">
         <v>44726</v>
       </c>
       <c r="C203" s="1">
@@ -12210,9 +12814,12 @@
         <f t="shared" si="11"/>
         <v>3.53</v>
       </c>
-    </row>
-    <row r="204" spans="2:16">
-      <c r="B204" s="4">
+      <c r="Q203" s="3">
+        <v>152901</v>
+      </c>
+    </row>
+    <row r="204" spans="2:17">
+      <c r="B204" s="5">
         <v>44725</v>
       </c>
       <c r="C204" s="1">
@@ -12260,9 +12867,12 @@
         <f t="shared" si="11"/>
         <v>4.07070707070707</v>
       </c>
-    </row>
-    <row r="205" spans="2:16">
-      <c r="B205" s="4">
+      <c r="Q204" s="3">
+        <v>7096675</v>
+      </c>
+    </row>
+    <row r="205" spans="2:17">
+      <c r="B205" s="5">
         <v>44724</v>
       </c>
       <c r="C205" s="1">
@@ -12310,9 +12920,12 @@
         <f t="shared" si="11"/>
         <v>3.76</v>
       </c>
-    </row>
-    <row r="206" spans="2:16">
-      <c r="B206" s="4">
+      <c r="Q205" s="3">
+        <v>8808655</v>
+      </c>
+    </row>
+    <row r="206" spans="2:17">
+      <c r="B206" s="5">
         <v>44723</v>
       </c>
       <c r="C206" s="1">
@@ -12360,9 +12973,12 @@
         <f t="shared" si="11"/>
         <v>4.73</v>
       </c>
-    </row>
-    <row r="207" spans="2:16">
-      <c r="B207" s="4">
+      <c r="Q206" s="3">
+        <v>3739382</v>
+      </c>
+    </row>
+    <row r="207" spans="2:17">
+      <c r="B207" s="5">
         <v>44722</v>
       </c>
       <c r="C207" s="1">
@@ -12410,9 +13026,12 @@
         <f t="shared" si="11"/>
         <v>4.06</v>
       </c>
-    </row>
-    <row r="208" spans="2:16">
-      <c r="B208" s="4">
+      <c r="Q207" s="3">
+        <v>595389</v>
+      </c>
+    </row>
+    <row r="208" spans="2:17">
+      <c r="B208" s="5">
         <v>44721</v>
       </c>
       <c r="C208" s="1">
@@ -12460,9 +13079,12 @@
         <f t="shared" si="11"/>
         <v>4.21</v>
       </c>
-    </row>
-    <row r="209" spans="2:16">
-      <c r="B209" s="4">
+      <c r="Q208" s="3">
+        <v>492919</v>
+      </c>
+    </row>
+    <row r="209" spans="2:17">
+      <c r="B209" s="5">
         <v>44720</v>
       </c>
       <c r="C209" s="1">
@@ -12510,9 +13132,12 @@
         <f t="shared" si="11"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="210" spans="2:16">
-      <c r="B210" s="4">
+      <c r="Q209" s="3">
+        <v>1705417</v>
+      </c>
+    </row>
+    <row r="210" spans="2:17">
+      <c r="B210" s="5">
         <v>44719</v>
       </c>
       <c r="C210" s="1">
@@ -12560,9 +13185,12 @@
         <f t="shared" si="11"/>
         <v>4.21</v>
       </c>
-    </row>
-    <row r="211" spans="2:16">
-      <c r="B211" s="4">
+      <c r="Q210" s="3">
+        <v>13979267</v>
+      </c>
+    </row>
+    <row r="211" spans="2:17">
+      <c r="B211" s="5">
         <v>44718</v>
       </c>
       <c r="C211" s="1">
@@ -12610,9 +13238,12 @@
         <f t="shared" si="11"/>
         <v>4.46</v>
       </c>
-    </row>
-    <row r="212" spans="2:16">
-      <c r="B212" s="4">
+      <c r="Q211" s="3">
+        <v>878018</v>
+      </c>
+    </row>
+    <row r="212" spans="2:17">
+      <c r="B212" s="5">
         <v>44717</v>
       </c>
       <c r="C212" s="1">
@@ -12660,9 +13291,12 @@
         <f t="shared" si="11"/>
         <v>3.95</v>
       </c>
-    </row>
-    <row r="213" spans="2:16">
-      <c r="B213" s="4">
+      <c r="Q212" s="3">
+        <v>31879926</v>
+      </c>
+    </row>
+    <row r="213" spans="2:17">
+      <c r="B213" s="5">
         <v>44716</v>
       </c>
       <c r="C213" s="1">
@@ -12710,9 +13344,12 @@
         <f t="shared" si="11"/>
         <v>4.18181818181818</v>
       </c>
-    </row>
-    <row r="214" spans="2:16">
-      <c r="B214" s="4">
+      <c r="Q213" s="3">
+        <v>278469</v>
+      </c>
+    </row>
+    <row r="214" spans="2:17">
+      <c r="B214" s="5">
         <v>44715</v>
       </c>
       <c r="C214" s="1">
@@ -12760,9 +13397,12 @@
         <f t="shared" si="11"/>
         <v>3.52</v>
       </c>
-    </row>
-    <row r="215" spans="2:16">
-      <c r="B215" s="4">
+      <c r="Q214" s="3">
+        <v>3938068</v>
+      </c>
+    </row>
+    <row r="215" spans="2:17">
+      <c r="B215" s="5">
         <v>44714</v>
       </c>
       <c r="C215" s="1">
@@ -12810,9 +13450,12 @@
         <f t="shared" si="11"/>
         <v>4.42</v>
       </c>
-    </row>
-    <row r="216" spans="2:16">
-      <c r="B216" s="4">
+      <c r="Q215" s="3">
+        <v>294798</v>
+      </c>
+    </row>
+    <row r="216" spans="2:17">
+      <c r="B216" s="5">
         <v>44713</v>
       </c>
       <c r="C216" s="1">
@@ -12860,9 +13503,12 @@
         <f t="shared" si="11"/>
         <v>4.31</v>
       </c>
-    </row>
-    <row r="217" spans="2:16">
-      <c r="B217" s="4">
+      <c r="Q216" s="3">
+        <v>124122</v>
+      </c>
+    </row>
+    <row r="217" spans="2:17">
+      <c r="B217" s="5">
         <v>44712</v>
       </c>
       <c r="C217" s="1">
@@ -12910,9 +13556,12 @@
         <f t="shared" si="11"/>
         <v>4.08</v>
       </c>
-    </row>
-    <row r="218" spans="2:16">
-      <c r="B218" s="4">
+      <c r="Q217" s="3">
+        <v>7084688</v>
+      </c>
+    </row>
+    <row r="218" spans="2:17">
+      <c r="B218" s="5">
         <v>44711</v>
       </c>
       <c r="C218" s="1">
@@ -12960,9 +13609,12 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="219" spans="2:16">
-      <c r="B219" s="4">
+      <c r="Q218" s="3">
+        <v>908471</v>
+      </c>
+    </row>
+    <row r="219" spans="2:17">
+      <c r="B219" s="5">
         <v>44710</v>
       </c>
       <c r="C219" s="1">
@@ -13010,9 +13662,12 @@
         <f t="shared" si="11"/>
         <v>4.32</v>
       </c>
-    </row>
-    <row r="220" spans="2:16">
-      <c r="B220" s="4">
+      <c r="Q219" s="3">
+        <v>1397958</v>
+      </c>
+    </row>
+    <row r="220" spans="2:17">
+      <c r="B220" s="5">
         <v>44709</v>
       </c>
       <c r="C220" s="1">
@@ -13060,9 +13715,12 @@
         <f t="shared" si="11"/>
         <v>4.04040404040404</v>
       </c>
-    </row>
-    <row r="221" spans="2:16">
-      <c r="B221" s="4">
+      <c r="Q220" s="3">
+        <v>588735</v>
+      </c>
+    </row>
+    <row r="221" spans="2:17">
+      <c r="B221" s="5">
         <v>44708</v>
       </c>
       <c r="C221" s="1">
@@ -13110,9 +13768,12 @@
         <f t="shared" si="11"/>
         <v>3.8019801980198</v>
       </c>
-    </row>
-    <row r="222" spans="2:16">
-      <c r="B222" s="4">
+      <c r="Q221" s="3">
+        <v>923335</v>
+      </c>
+    </row>
+    <row r="222" spans="2:17">
+      <c r="B222" s="5">
         <v>44707</v>
       </c>
       <c r="C222" s="1">
@@ -13160,9 +13821,12 @@
         <f t="shared" si="11"/>
         <v>3.97979797979798</v>
       </c>
-    </row>
-    <row r="223" spans="2:16">
-      <c r="B223" s="4">
+      <c r="Q222" s="3">
+        <v>18178753</v>
+      </c>
+    </row>
+    <row r="223" spans="2:17">
+      <c r="B223" s="5">
         <v>44706</v>
       </c>
       <c r="C223" s="1">
@@ -13210,9 +13874,12 @@
         <f t="shared" si="11"/>
         <v>4.86868686868687</v>
       </c>
-    </row>
-    <row r="224" spans="2:16">
-      <c r="B224" s="4">
+      <c r="Q223" s="3">
+        <v>388963</v>
+      </c>
+    </row>
+    <row r="224" spans="2:17">
+      <c r="B224" s="5">
         <v>44705</v>
       </c>
       <c r="C224" s="1">
@@ -13260,9 +13927,12 @@
         <f t="shared" si="11"/>
         <v>4.09</v>
       </c>
-    </row>
-    <row r="225" spans="2:16">
-      <c r="B225" s="4">
+      <c r="Q224" s="3">
+        <v>77914316</v>
+      </c>
+    </row>
+    <row r="225" spans="2:17">
+      <c r="B225" s="5">
         <v>44704</v>
       </c>
       <c r="C225" s="1">
@@ -13310,9 +13980,12 @@
         <f t="shared" si="11"/>
         <v>4.11</v>
       </c>
-    </row>
-    <row r="226" spans="2:16">
-      <c r="B226" s="4">
+      <c r="Q225" s="3">
+        <v>1758893</v>
+      </c>
+    </row>
+    <row r="226" spans="2:17">
+      <c r="B226" s="5">
         <v>44703</v>
       </c>
       <c r="C226" s="1">
@@ -13360,9 +14033,12 @@
         <f t="shared" si="11"/>
         <v>3.97</v>
       </c>
-    </row>
-    <row r="227" spans="2:16">
-      <c r="B227" s="4">
+      <c r="Q226" s="3">
+        <v>190205072</v>
+      </c>
+    </row>
+    <row r="227" spans="2:17">
+      <c r="B227" s="5">
         <v>44702</v>
       </c>
       <c r="C227" s="1">
@@ -13410,9 +14086,12 @@
         <f t="shared" si="11"/>
         <v>3.9009900990099</v>
       </c>
-    </row>
-    <row r="228" spans="2:16">
-      <c r="B228" s="4">
+      <c r="Q227" s="3">
+        <v>3757085</v>
+      </c>
+    </row>
+    <row r="228" spans="2:17">
+      <c r="B228" s="5">
         <v>44701</v>
       </c>
       <c r="C228" s="1">
@@ -13460,9 +14139,12 @@
         <f t="shared" si="11"/>
         <v>4.52</v>
       </c>
-    </row>
-    <row r="229" spans="2:16">
-      <c r="B229" s="4">
+      <c r="Q228" s="3">
+        <v>3144985</v>
+      </c>
+    </row>
+    <row r="229" spans="2:17">
+      <c r="B229" s="5">
         <v>44700</v>
       </c>
       <c r="C229" s="1">
@@ -13510,9 +14192,12 @@
         <f t="shared" si="11"/>
         <v>4.37</v>
       </c>
-    </row>
-    <row r="230" spans="2:16">
-      <c r="B230" s="4">
+      <c r="Q229" s="3">
+        <v>63559754</v>
+      </c>
+    </row>
+    <row r="230" spans="2:17">
+      <c r="B230" s="5">
         <v>44699</v>
       </c>
       <c r="C230" s="1">
@@ -13560,9 +14245,12 @@
         <f t="shared" si="11"/>
         <v>3.8</v>
       </c>
-    </row>
-    <row r="231" spans="2:16">
-      <c r="B231" s="4">
+      <c r="Q230" s="3">
+        <v>411478</v>
+      </c>
+    </row>
+    <row r="231" spans="2:17">
+      <c r="B231" s="5">
         <v>44698</v>
       </c>
       <c r="C231" s="1">
@@ -13610,9 +14298,12 @@
         <f t="shared" si="11"/>
         <v>4.19</v>
       </c>
-    </row>
-    <row r="232" spans="2:16">
-      <c r="B232" s="4">
+      <c r="Q231" s="3">
+        <v>242783091</v>
+      </c>
+    </row>
+    <row r="232" spans="2:17">
+      <c r="B232" s="5">
         <v>44697</v>
       </c>
       <c r="C232" s="1">
@@ -13660,9 +14351,12 @@
         <f t="shared" si="11"/>
         <v>4.53535353535354</v>
       </c>
-    </row>
-    <row r="233" spans="2:16">
-      <c r="B233" s="4">
+      <c r="Q232" s="3">
+        <v>640909</v>
+      </c>
+    </row>
+    <row r="233" spans="2:17">
+      <c r="B233" s="5">
         <v>44696</v>
       </c>
       <c r="C233" s="1">
@@ -13710,9 +14404,12 @@
         <f t="shared" si="11"/>
         <v>4.53</v>
       </c>
-    </row>
-    <row r="234" spans="2:16">
-      <c r="B234" s="4">
+      <c r="Q233" s="3">
+        <v>15022494</v>
+      </c>
+    </row>
+    <row r="234" spans="2:17">
+      <c r="B234" s="5">
         <v>44695</v>
       </c>
       <c r="C234" s="1">
@@ -13760,9 +14457,12 @@
         <f t="shared" si="11"/>
         <v>3.81372549019608</v>
       </c>
-    </row>
-    <row r="235" spans="2:16">
-      <c r="B235" s="4">
+      <c r="Q234" s="3">
+        <v>56181783</v>
+      </c>
+    </row>
+    <row r="235" spans="2:17">
+      <c r="B235" s="5">
         <v>44694</v>
       </c>
       <c r="C235" s="1">
@@ -13810,9 +14510,12 @@
         <f t="shared" si="11"/>
         <v>3.85</v>
       </c>
-    </row>
-    <row r="236" spans="2:16">
-      <c r="B236" s="4">
+      <c r="Q235" s="3">
+        <v>279464</v>
+      </c>
+    </row>
+    <row r="236" spans="2:17">
+      <c r="B236" s="5">
         <v>44693</v>
       </c>
       <c r="C236" s="1">
@@ -13860,9 +14563,12 @@
         <f t="shared" si="11"/>
         <v>4.42574257425743</v>
       </c>
-    </row>
-    <row r="237" spans="2:16">
-      <c r="B237" s="4">
+      <c r="Q236" s="3">
+        <v>253265</v>
+      </c>
+    </row>
+    <row r="237" spans="2:17">
+      <c r="B237" s="5">
         <v>44692</v>
       </c>
       <c r="C237" s="1">
@@ -13910,9 +14616,12 @@
         <f t="shared" si="11"/>
         <v>3.97959183673469</v>
       </c>
-    </row>
-    <row r="238" spans="2:16">
-      <c r="B238" s="4">
+      <c r="Q237" s="3">
+        <v>727546</v>
+      </c>
+    </row>
+    <row r="238" spans="2:17">
+      <c r="B238" s="5">
         <v>44691</v>
       </c>
       <c r="C238" s="1">
@@ -13960,9 +14669,12 @@
         <f t="shared" si="11"/>
         <v>4.39393939393939</v>
       </c>
-    </row>
-    <row r="239" spans="2:16">
-      <c r="B239" s="4">
+      <c r="Q238" s="3">
+        <v>1230211</v>
+      </c>
+    </row>
+    <row r="239" spans="2:17">
+      <c r="B239" s="5">
         <v>44690</v>
       </c>
       <c r="C239" s="1">
@@ -14010,9 +14722,12 @@
         <f t="shared" si="11"/>
         <v>3.69306930693069</v>
       </c>
-    </row>
-    <row r="240" spans="2:16">
-      <c r="B240" s="4">
+      <c r="Q239" s="3">
+        <v>5881862</v>
+      </c>
+    </row>
+    <row r="240" spans="2:17">
+      <c r="B240" s="5">
         <v>44689</v>
       </c>
       <c r="C240" s="1">
@@ -14060,9 +14775,12 @@
         <f t="shared" si="11"/>
         <v>4.72</v>
       </c>
-    </row>
-    <row r="241" spans="2:16">
-      <c r="B241" s="4">
+      <c r="Q240" s="3">
+        <v>209480</v>
+      </c>
+    </row>
+    <row r="241" spans="2:17">
+      <c r="B241" s="5">
         <v>44688</v>
       </c>
       <c r="C241" s="1">
@@ -14110,9 +14828,12 @@
         <f t="shared" si="11"/>
         <v>4.13861386138614</v>
       </c>
-    </row>
-    <row r="242" spans="2:16">
-      <c r="B242" s="4">
+      <c r="Q241" s="3">
+        <v>3381410</v>
+      </c>
+    </row>
+    <row r="242" spans="2:17">
+      <c r="B242" s="5">
         <v>44687</v>
       </c>
       <c r="C242" s="1">
@@ -14160,9 +14881,12 @@
         <f t="shared" si="11"/>
         <v>4.28282828282828</v>
       </c>
-    </row>
-    <row r="243" spans="2:16">
-      <c r="B243" s="4">
+      <c r="Q242" s="3">
+        <v>6145138</v>
+      </c>
+    </row>
+    <row r="243" spans="2:17">
+      <c r="B243" s="5">
         <v>44686</v>
       </c>
       <c r="C243" s="1">
@@ -14210,9 +14934,12 @@
         <f t="shared" si="11"/>
         <v>4.76</v>
       </c>
-    </row>
-    <row r="244" spans="2:16">
-      <c r="B244" s="4">
+      <c r="Q243" s="3">
+        <v>4281428</v>
+      </c>
+    </row>
+    <row r="244" spans="2:17">
+      <c r="B244" s="5">
         <v>44685</v>
       </c>
       <c r="C244" s="1">
@@ -14260,9 +14987,12 @@
         <f t="shared" si="11"/>
         <v>3.13131313131313</v>
       </c>
-    </row>
-    <row r="245" spans="2:16">
-      <c r="B245" s="4">
+      <c r="Q244" s="3">
+        <v>31816971</v>
+      </c>
+    </row>
+    <row r="245" spans="2:17">
+      <c r="B245" s="5">
         <v>44684</v>
       </c>
       <c r="C245" s="1">
@@ -14310,9 +15040,12 @@
         <f t="shared" si="11"/>
         <v>4.03</v>
       </c>
-    </row>
-    <row r="246" spans="2:16">
-      <c r="B246" s="4">
+      <c r="Q245" s="3">
+        <v>19060619</v>
+      </c>
+    </row>
+    <row r="246" spans="2:17">
+      <c r="B246" s="5">
         <v>44683</v>
       </c>
       <c r="C246" s="1">
@@ -14360,9 +15093,12 @@
         <f t="shared" si="11"/>
         <v>4.06</v>
       </c>
-    </row>
-    <row r="247" spans="2:16">
-      <c r="B247" s="4">
+      <c r="Q246" s="3">
+        <v>138433809</v>
+      </c>
+    </row>
+    <row r="247" spans="2:17">
+      <c r="B247" s="5">
         <v>44682</v>
       </c>
       <c r="C247" s="1">
@@ -14410,9 +15146,12 @@
         <f t="shared" si="11"/>
         <v>4.81818181818182</v>
       </c>
-    </row>
-    <row r="248" spans="2:16">
-      <c r="B248" s="4">
+      <c r="Q247" s="3">
+        <v>340426</v>
+      </c>
+    </row>
+    <row r="248" spans="2:17">
+      <c r="B248" s="5">
         <v>44681</v>
       </c>
       <c r="C248" s="1">
@@ -14460,9 +15199,12 @@
         <f t="shared" si="11"/>
         <v>4.7979797979798</v>
       </c>
-    </row>
-    <row r="249" spans="2:16">
-      <c r="B249" s="4">
+      <c r="Q248" s="3">
+        <v>462298</v>
+      </c>
+    </row>
+    <row r="249" spans="2:17">
+      <c r="B249" s="5">
         <v>44680</v>
       </c>
       <c r="C249" s="1">
@@ -14510,9 +15252,12 @@
         <f t="shared" si="11"/>
         <v>3.46</v>
       </c>
-    </row>
-    <row r="250" spans="2:16">
-      <c r="B250" s="4">
+      <c r="Q249" s="3">
+        <v>7092806</v>
+      </c>
+    </row>
+    <row r="250" spans="2:17">
+      <c r="B250" s="5">
         <v>44679</v>
       </c>
       <c r="C250" s="1">
@@ -14560,9 +15305,12 @@
         <f t="shared" si="11"/>
         <v>4.79</v>
       </c>
-    </row>
-    <row r="251" spans="2:16">
-      <c r="B251" s="4">
+      <c r="Q250" s="3">
+        <v>210124</v>
+      </c>
+    </row>
+    <row r="251" spans="2:17">
+      <c r="B251" s="5">
         <v>44678</v>
       </c>
       <c r="C251" s="1">
@@ -14610,9 +15358,12 @@
         <f t="shared" si="11"/>
         <v>4.03030303030303</v>
       </c>
-    </row>
-    <row r="252" spans="2:16">
-      <c r="B252" s="4">
+      <c r="Q251" s="3">
+        <v>68755779</v>
+      </c>
+    </row>
+    <row r="252" spans="2:17">
+      <c r="B252" s="5">
         <v>44677</v>
       </c>
       <c r="C252" s="1">
@@ -14660,9 +15411,12 @@
         <f t="shared" si="11"/>
         <v>3.7</v>
       </c>
-    </row>
-    <row r="253" spans="2:16">
-      <c r="B253" s="4">
+      <c r="Q252" s="3">
+        <v>419629</v>
+      </c>
+    </row>
+    <row r="253" spans="2:17">
+      <c r="B253" s="5">
         <v>44676</v>
       </c>
       <c r="C253" s="1">
@@ -14710,9 +15464,12 @@
         <f t="shared" si="11"/>
         <v>4.63</v>
       </c>
-    </row>
-    <row r="254" spans="2:16">
-      <c r="B254" s="4">
+      <c r="Q253" s="3">
+        <v>473664</v>
+      </c>
+    </row>
+    <row r="254" spans="2:17">
+      <c r="B254" s="5">
         <v>44675</v>
       </c>
       <c r="C254" s="1">
@@ -14760,9 +15517,12 @@
         <f t="shared" si="11"/>
         <v>4.02</v>
       </c>
-    </row>
-    <row r="255" spans="2:16">
-      <c r="B255" s="4">
+      <c r="Q254" s="3">
+        <v>935898</v>
+      </c>
+    </row>
+    <row r="255" spans="2:17">
+      <c r="B255" s="5">
         <v>44674</v>
       </c>
       <c r="C255" s="1">
@@ -14810,9 +15570,12 @@
         <f t="shared" si="11"/>
         <v>4.06</v>
       </c>
-    </row>
-    <row r="256" spans="2:16">
-      <c r="B256" s="4">
+      <c r="Q255" s="3">
+        <v>9298184</v>
+      </c>
+    </row>
+    <row r="256" spans="2:17">
+      <c r="B256" s="5">
         <v>44673</v>
       </c>
       <c r="C256" s="1">
@@ -14860,9 +15623,12 @@
         <f t="shared" si="11"/>
         <v>3.33663366336634</v>
       </c>
-    </row>
-    <row r="257" spans="2:16">
-      <c r="B257" s="4">
+      <c r="Q256" s="3">
+        <v>53247607</v>
+      </c>
+    </row>
+    <row r="257" spans="2:17">
+      <c r="B257" s="5">
         <v>44672</v>
       </c>
       <c r="C257" s="1">
@@ -14910,9 +15676,12 @@
         <f t="shared" si="11"/>
         <v>4.71287128712871</v>
       </c>
-    </row>
-    <row r="258" spans="2:16">
-      <c r="B258" s="4">
+      <c r="Q257" s="3">
+        <v>5321340</v>
+      </c>
+    </row>
+    <row r="258" spans="2:17">
+      <c r="B258" s="5">
         <v>44671</v>
       </c>
       <c r="C258" s="1">
@@ -14960,9 +15729,12 @@
         <f t="shared" si="11"/>
         <v>4.27</v>
       </c>
-    </row>
-    <row r="259" spans="2:16">
-      <c r="B259" s="4">
+      <c r="Q258" s="3">
+        <v>9748668</v>
+      </c>
+    </row>
+    <row r="259" spans="2:17">
+      <c r="B259" s="5">
         <v>44670</v>
       </c>
       <c r="C259" s="1">
@@ -15010,9 +15782,12 @@
         <f t="shared" si="11"/>
         <v>5.3030303030303</v>
       </c>
-    </row>
-    <row r="260" spans="2:16">
-      <c r="B260" s="4">
+      <c r="Q259" s="3">
+        <v>1042532</v>
+      </c>
+    </row>
+    <row r="260" spans="2:17">
+      <c r="B260" s="5">
         <v>44669</v>
       </c>
       <c r="C260" s="1">
@@ -15060,9 +15835,12 @@
         <f t="shared" si="11"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="261" spans="2:16">
-      <c r="B261" s="4">
+      <c r="Q260" s="3">
+        <v>1924190</v>
+      </c>
+    </row>
+    <row r="261" spans="2:17">
+      <c r="B261" s="5">
         <v>44668</v>
       </c>
       <c r="C261" s="1">
@@ -15110,9 +15888,12 @@
         <f t="shared" si="11"/>
         <v>4.27272727272727</v>
       </c>
-    </row>
-    <row r="262" spans="2:16">
-      <c r="B262" s="4">
+      <c r="Q261" s="3">
+        <v>3187842</v>
+      </c>
+    </row>
+    <row r="262" spans="2:17">
+      <c r="B262" s="5">
         <v>44667</v>
       </c>
       <c r="C262" s="1">
@@ -15160,9 +15941,12 @@
         <f t="shared" ref="P262:P325" si="14">N262/O262</f>
         <v>4.24</v>
       </c>
-    </row>
-    <row r="263" spans="2:16">
-      <c r="B263" s="4">
+      <c r="Q262" s="3">
+        <v>2681029</v>
+      </c>
+    </row>
+    <row r="263" spans="2:17">
+      <c r="B263" s="5">
         <v>44666</v>
       </c>
       <c r="C263" s="1">
@@ -15210,9 +15994,12 @@
         <f t="shared" si="14"/>
         <v>4.19</v>
       </c>
-    </row>
-    <row r="264" spans="2:16">
-      <c r="B264" s="4">
+      <c r="Q263" s="3">
+        <v>6785296</v>
+      </c>
+    </row>
+    <row r="264" spans="2:17">
+      <c r="B264" s="5">
         <v>44665</v>
       </c>
       <c r="C264" s="1">
@@ -15260,9 +16047,12 @@
         <f t="shared" si="14"/>
         <v>4.11</v>
       </c>
-    </row>
-    <row r="265" spans="2:16">
-      <c r="B265" s="4">
+      <c r="Q264" s="3">
+        <v>328039</v>
+      </c>
+    </row>
+    <row r="265" spans="2:17">
+      <c r="B265" s="5">
         <v>44664</v>
       </c>
       <c r="C265" s="1">
@@ -15310,9 +16100,12 @@
         <f t="shared" si="14"/>
         <v>3.91</v>
       </c>
-    </row>
-    <row r="266" spans="2:16">
-      <c r="B266" s="4">
+      <c r="Q265" s="3">
+        <v>2371231</v>
+      </c>
+    </row>
+    <row r="266" spans="2:17">
+      <c r="B266" s="5">
         <v>44663</v>
       </c>
       <c r="C266" s="1">
@@ -15360,9 +16153,12 @@
         <f t="shared" si="14"/>
         <v>4.07070707070707</v>
       </c>
-    </row>
-    <row r="267" spans="2:16">
-      <c r="B267" s="4">
+      <c r="Q266" s="3">
+        <v>45407189</v>
+      </c>
+    </row>
+    <row r="267" spans="2:17">
+      <c r="B267" s="5">
         <v>44662</v>
       </c>
       <c r="C267" s="1">
@@ -15410,9 +16206,12 @@
         <f t="shared" si="14"/>
         <v>4.35353535353535</v>
       </c>
-    </row>
-    <row r="268" spans="2:16">
-      <c r="B268" s="4">
+      <c r="Q267" s="3">
+        <v>8744772</v>
+      </c>
+    </row>
+    <row r="268" spans="2:17">
+      <c r="B268" s="5">
         <v>44661</v>
       </c>
       <c r="C268" s="1">
@@ -15460,9 +16259,12 @@
         <f t="shared" si="14"/>
         <v>3.79207920792079</v>
       </c>
-    </row>
-    <row r="269" spans="2:16">
-      <c r="B269" s="4">
+      <c r="Q268" s="3">
+        <v>244690155</v>
+      </c>
+    </row>
+    <row r="269" spans="2:17">
+      <c r="B269" s="5">
         <v>44660</v>
       </c>
       <c r="C269" s="1">
@@ -15510,9 +16312,12 @@
         <f t="shared" si="14"/>
         <v>3.38613861386139</v>
       </c>
-    </row>
-    <row r="270" spans="2:16">
-      <c r="B270" s="4">
+      <c r="Q269" s="3">
+        <v>2012524</v>
+      </c>
+    </row>
+    <row r="270" spans="2:17">
+      <c r="B270" s="5">
         <v>44659</v>
       </c>
       <c r="C270" s="1">
@@ -15560,9 +16365,12 @@
         <f t="shared" si="14"/>
         <v>4.09</v>
       </c>
-    </row>
-    <row r="271" spans="2:16">
-      <c r="B271" s="4">
+      <c r="Q270" s="3">
+        <v>2972708</v>
+      </c>
+    </row>
+    <row r="271" spans="2:17">
+      <c r="B271" s="5">
         <v>44658</v>
       </c>
       <c r="C271" s="1">
@@ -15610,9 +16418,12 @@
         <f t="shared" si="14"/>
         <v>4.62376237623762</v>
       </c>
-    </row>
-    <row r="272" spans="2:16">
-      <c r="B272" s="4">
+      <c r="Q271" s="3">
+        <v>499808</v>
+      </c>
+    </row>
+    <row r="272" spans="2:17">
+      <c r="B272" s="5">
         <v>44657</v>
       </c>
       <c r="C272" s="1">
@@ -15660,9 +16471,12 @@
         <f t="shared" si="14"/>
         <v>4.58415841584158</v>
       </c>
-    </row>
-    <row r="273" spans="2:16">
-      <c r="B273" s="4">
+      <c r="Q272" s="3">
+        <v>2711522</v>
+      </c>
+    </row>
+    <row r="273" spans="2:17">
+      <c r="B273" s="5">
         <v>44656</v>
       </c>
       <c r="C273" s="1">
@@ -15710,9 +16524,12 @@
         <f t="shared" si="14"/>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="274" spans="2:16">
-      <c r="B274" s="4">
+      <c r="Q273" s="3">
+        <v>3010028</v>
+      </c>
+    </row>
+    <row r="274" spans="2:17">
+      <c r="B274" s="5">
         <v>44655</v>
       </c>
       <c r="C274" s="1">
@@ -15760,9 +16577,12 @@
         <f t="shared" si="14"/>
         <v>4.49494949494949</v>
       </c>
-    </row>
-    <row r="275" spans="2:16">
-      <c r="B275" s="4">
+      <c r="Q274" s="3">
+        <v>1011728</v>
+      </c>
+    </row>
+    <row r="275" spans="2:17">
+      <c r="B275" s="5">
         <v>44654</v>
       </c>
       <c r="C275" s="1">
@@ -15810,9 +16630,12 @@
         <f t="shared" si="14"/>
         <v>4.88</v>
       </c>
-    </row>
-    <row r="276" spans="2:16">
-      <c r="B276" s="4">
+      <c r="Q275" s="3">
+        <v>10792786</v>
+      </c>
+    </row>
+    <row r="276" spans="2:17">
+      <c r="B276" s="5">
         <v>44653</v>
       </c>
       <c r="C276" s="1">
@@ -15860,9 +16683,12 @@
         <f t="shared" si="14"/>
         <v>3.62</v>
       </c>
-    </row>
-    <row r="277" spans="2:16">
-      <c r="B277" s="4">
+      <c r="Q276" s="3">
+        <v>109419</v>
+      </c>
+    </row>
+    <row r="277" spans="2:17">
+      <c r="B277" s="5">
         <v>44652</v>
       </c>
       <c r="C277" s="1">
@@ -15910,9 +16736,12 @@
         <f t="shared" si="14"/>
         <v>4.47</v>
       </c>
-    </row>
-    <row r="278" spans="2:16">
-      <c r="B278" s="4">
+      <c r="Q277" s="3">
+        <v>258314</v>
+      </c>
+    </row>
+    <row r="278" spans="2:17">
+      <c r="B278" s="5">
         <v>44651</v>
       </c>
       <c r="C278" s="1">
@@ -15960,9 +16789,12 @@
         <f t="shared" si="14"/>
         <v>4.9009900990099</v>
       </c>
-    </row>
-    <row r="279" spans="2:16">
-      <c r="B279" s="4">
+      <c r="Q278" s="3">
+        <v>543486</v>
+      </c>
+    </row>
+    <row r="279" spans="2:17">
+      <c r="B279" s="5">
         <v>44650</v>
       </c>
       <c r="C279" s="1">
@@ -16010,9 +16842,12 @@
         <f t="shared" si="14"/>
         <v>4.61616161616162</v>
       </c>
-    </row>
-    <row r="280" spans="2:16">
-      <c r="B280" s="4">
+      <c r="Q279" s="3">
+        <v>3914849</v>
+      </c>
+    </row>
+    <row r="280" spans="2:17">
+      <c r="B280" s="5">
         <v>44649</v>
       </c>
       <c r="C280" s="1">
@@ -16060,9 +16895,12 @@
         <f t="shared" si="14"/>
         <v>4.51515151515152</v>
       </c>
-    </row>
-    <row r="281" spans="2:16">
-      <c r="B281" s="4">
+      <c r="Q280" s="3">
+        <v>191963867</v>
+      </c>
+    </row>
+    <row r="281" spans="2:17">
+      <c r="B281" s="5">
         <v>44648</v>
       </c>
       <c r="C281" s="1">
@@ -16110,9 +16948,12 @@
         <f t="shared" si="14"/>
         <v>4.71287128712871</v>
       </c>
-    </row>
-    <row r="282" spans="2:16">
-      <c r="B282" s="4">
+      <c r="Q281" s="3">
+        <v>232005894</v>
+      </c>
+    </row>
+    <row r="282" spans="2:17">
+      <c r="B282" s="5">
         <v>44647</v>
       </c>
       <c r="C282" s="1">
@@ -16160,9 +17001,12 @@
         <f t="shared" si="14"/>
         <v>4.63492063492064</v>
       </c>
-    </row>
-    <row r="283" spans="2:16">
-      <c r="B283" s="4">
+      <c r="Q282" s="3">
+        <v>697326</v>
+      </c>
+    </row>
+    <row r="283" spans="2:17">
+      <c r="B283" s="5">
         <v>44646</v>
       </c>
       <c r="C283" s="1">
@@ -16210,9 +17054,12 @@
         <f t="shared" si="14"/>
         <v>4.61</v>
       </c>
-    </row>
-    <row r="284" spans="2:16">
-      <c r="B284" s="4">
+      <c r="Q283" s="3">
+        <v>1908076</v>
+      </c>
+    </row>
+    <row r="284" spans="2:17">
+      <c r="B284" s="5">
         <v>44645</v>
       </c>
       <c r="C284" s="1">
@@ -16260,9 +17107,12 @@
         <f t="shared" si="14"/>
         <v>3.97959183673469</v>
       </c>
-    </row>
-    <row r="285" spans="2:16">
-      <c r="B285" s="4">
+      <c r="Q284" s="3">
+        <v>9688338</v>
+      </c>
+    </row>
+    <row r="285" spans="2:17">
+      <c r="B285" s="5">
         <v>44644</v>
       </c>
       <c r="C285" s="1">
@@ -16310,9 +17160,12 @@
         <f t="shared" si="14"/>
         <v>3.61386138613861</v>
       </c>
-    </row>
-    <row r="286" spans="2:16">
-      <c r="B286" s="4">
+      <c r="Q285" s="3">
+        <v>13516414</v>
+      </c>
+    </row>
+    <row r="286" spans="2:17">
+      <c r="B286" s="5">
         <v>44643</v>
       </c>
       <c r="C286" s="1">
@@ -16360,9 +17213,12 @@
         <f t="shared" si="14"/>
         <v>4.20792079207921</v>
       </c>
-    </row>
-    <row r="287" spans="2:16">
-      <c r="B287" s="4">
+      <c r="Q286" s="3">
+        <v>1366135</v>
+      </c>
+    </row>
+    <row r="287" spans="2:17">
+      <c r="B287" s="5">
         <v>44642</v>
       </c>
       <c r="C287" s="1">
@@ -16410,9 +17266,12 @@
         <f t="shared" si="14"/>
         <v>4.36363636363636</v>
       </c>
-    </row>
-    <row r="288" spans="2:16">
-      <c r="B288" s="4">
+      <c r="Q287" s="3">
+        <v>51634</v>
+      </c>
+    </row>
+    <row r="288" spans="2:17">
+      <c r="B288" s="5">
         <v>44641</v>
       </c>
       <c r="C288" s="1">
@@ -16460,9 +17319,12 @@
         <f t="shared" si="14"/>
         <v>3.5050505050505</v>
       </c>
-    </row>
-    <row r="289" spans="2:16">
-      <c r="B289" s="4">
+      <c r="Q288" s="3">
+        <v>782849411</v>
+      </c>
+    </row>
+    <row r="289" spans="2:17">
+      <c r="B289" s="5">
         <v>44640</v>
       </c>
       <c r="C289" s="1">
@@ -16510,9 +17372,12 @@
         <f t="shared" si="14"/>
         <v>4.31313131313131</v>
       </c>
-    </row>
-    <row r="290" spans="2:16">
-      <c r="B290" s="4">
+      <c r="Q289" s="3">
+        <v>6561081</v>
+      </c>
+    </row>
+    <row r="290" spans="2:17">
+      <c r="B290" s="5">
         <v>44639</v>
       </c>
       <c r="C290" s="1">
@@ -16560,9 +17425,12 @@
         <f t="shared" si="14"/>
         <v>4.31683168316832</v>
       </c>
-    </row>
-    <row r="291" spans="2:16">
-      <c r="B291" s="4">
+      <c r="Q290" s="3">
+        <v>67052567</v>
+      </c>
+    </row>
+    <row r="291" spans="2:17">
+      <c r="B291" s="5">
         <v>44638</v>
       </c>
       <c r="C291" s="1">
@@ -16610,9 +17478,12 @@
         <f t="shared" si="14"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="292" spans="2:16">
-      <c r="B292" s="4">
+      <c r="Q291" s="3">
+        <v>546457</v>
+      </c>
+    </row>
+    <row r="292" spans="2:17">
+      <c r="B292" s="5">
         <v>44637</v>
       </c>
       <c r="C292" s="1">
@@ -16660,9 +17531,12 @@
         <f t="shared" si="14"/>
         <v>4.36363636363636</v>
       </c>
-    </row>
-    <row r="293" spans="2:16">
-      <c r="B293" s="4">
+      <c r="Q292" s="3">
+        <v>158421100</v>
+      </c>
+    </row>
+    <row r="293" spans="2:17">
+      <c r="B293" s="5">
         <v>44636</v>
       </c>
       <c r="C293" s="1">
@@ -16710,9 +17584,12 @@
         <f t="shared" si="14"/>
         <v>4.63366336633663</v>
       </c>
-    </row>
-    <row r="294" spans="2:16">
-      <c r="B294" s="4">
+      <c r="Q293" s="3">
+        <v>2092828</v>
+      </c>
+    </row>
+    <row r="294" spans="2:17">
+      <c r="B294" s="5">
         <v>44635</v>
       </c>
       <c r="C294" s="1">
@@ -16760,9 +17637,12 @@
         <f t="shared" si="14"/>
         <v>3.64705882352941</v>
       </c>
-    </row>
-    <row r="295" spans="2:16">
-      <c r="B295" s="4">
+      <c r="Q294" s="3">
+        <v>2019275</v>
+      </c>
+    </row>
+    <row r="295" spans="2:17">
+      <c r="B295" s="5">
         <v>44634</v>
       </c>
       <c r="C295" s="1">
@@ -16810,9 +17690,12 @@
         <f t="shared" si="14"/>
         <v>4.31</v>
       </c>
-    </row>
-    <row r="296" spans="2:16">
-      <c r="B296" s="4">
+      <c r="Q295" s="3">
+        <v>301053</v>
+      </c>
+    </row>
+    <row r="296" spans="2:17">
+      <c r="B296" s="5">
         <v>44633</v>
       </c>
       <c r="C296" s="1">
@@ -16860,9 +17743,12 @@
         <f t="shared" si="14"/>
         <v>4.13131313131313</v>
       </c>
-    </row>
-    <row r="297" spans="2:16">
-      <c r="B297" s="4">
+      <c r="Q296" s="3">
+        <v>65626732</v>
+      </c>
+    </row>
+    <row r="297" spans="2:17">
+      <c r="B297" s="5">
         <v>44632</v>
       </c>
       <c r="C297" s="1">
@@ -16910,9 +17796,12 @@
         <f t="shared" si="14"/>
         <v>3.91</v>
       </c>
-    </row>
-    <row r="298" spans="2:16">
-      <c r="B298" s="4">
+      <c r="Q297" s="3">
+        <v>239271204</v>
+      </c>
+    </row>
+    <row r="298" spans="2:17">
+      <c r="B298" s="5">
         <v>44631</v>
       </c>
       <c r="C298" s="1">
@@ -16960,9 +17849,12 @@
         <f t="shared" si="14"/>
         <v>4.96</v>
       </c>
-    </row>
-    <row r="299" spans="2:16">
-      <c r="B299" s="4">
+      <c r="Q298" s="3">
+        <v>92006970</v>
+      </c>
+    </row>
+    <row r="299" spans="2:17">
+      <c r="B299" s="5">
         <v>44630</v>
       </c>
       <c r="C299" s="1">
@@ -17010,9 +17902,12 @@
         <f t="shared" si="14"/>
         <v>3.89</v>
       </c>
-    </row>
-    <row r="300" spans="2:16">
-      <c r="B300" s="4">
+      <c r="Q299" s="3">
+        <v>1459542</v>
+      </c>
+    </row>
+    <row r="300" spans="2:17">
+      <c r="B300" s="5">
         <v>44629</v>
       </c>
       <c r="C300" s="1">
@@ -17060,9 +17955,12 @@
         <f t="shared" si="14"/>
         <v>4.02</v>
       </c>
-    </row>
-    <row r="301" spans="2:16">
-      <c r="B301" s="4">
+      <c r="Q300" s="3">
+        <v>123027963</v>
+      </c>
+    </row>
+    <row r="301" spans="2:17">
+      <c r="B301" s="5">
         <v>44628</v>
       </c>
       <c r="C301" s="1">
@@ -17110,9 +18008,12 @@
         <f t="shared" si="14"/>
         <v>4.33</v>
       </c>
-    </row>
-    <row r="302" spans="2:16">
-      <c r="B302" s="4">
+      <c r="Q301" s="3">
+        <v>32311923</v>
+      </c>
+    </row>
+    <row r="302" spans="2:17">
+      <c r="B302" s="5">
         <v>44627</v>
       </c>
       <c r="C302" s="1">
@@ -17160,9 +18061,12 @@
         <f t="shared" si="14"/>
         <v>3.85148514851485</v>
       </c>
-    </row>
-    <row r="303" spans="2:16">
-      <c r="B303" s="4">
+      <c r="Q302" s="3">
+        <v>433375</v>
+      </c>
+    </row>
+    <row r="303" spans="2:17">
+      <c r="B303" s="5">
         <v>44626</v>
       </c>
       <c r="C303" s="1">
@@ -17210,9 +18114,12 @@
         <f t="shared" si="14"/>
         <v>3.82178217821782</v>
       </c>
-    </row>
-    <row r="304" spans="2:16">
-      <c r="B304" s="4">
+      <c r="Q303" s="3">
+        <v>9764137</v>
+      </c>
+    </row>
+    <row r="304" spans="2:17">
+      <c r="B304" s="5">
         <v>44625</v>
       </c>
       <c r="C304" s="1">
@@ -17260,9 +18167,12 @@
         <f t="shared" si="14"/>
         <v>4.08910891089109</v>
       </c>
-    </row>
-    <row r="305" spans="2:16">
-      <c r="B305" s="4">
+      <c r="Q304" s="3">
+        <v>816003</v>
+      </c>
+    </row>
+    <row r="305" spans="2:17">
+      <c r="B305" s="5">
         <v>44624</v>
       </c>
       <c r="C305" s="1">
@@ -17310,9 +18220,12 @@
         <f t="shared" si="14"/>
         <v>4.22772277227723</v>
       </c>
-    </row>
-    <row r="306" spans="2:16">
-      <c r="B306" s="4">
+      <c r="Q305" s="3">
+        <v>28375319</v>
+      </c>
+    </row>
+    <row r="306" spans="2:17">
+      <c r="B306" s="5">
         <v>44623</v>
       </c>
       <c r="C306" s="1">
@@ -17360,9 +18273,12 @@
         <f t="shared" si="14"/>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="307" spans="2:16">
-      <c r="B307" s="4">
+      <c r="Q306" s="3">
+        <v>779010</v>
+      </c>
+    </row>
+    <row r="307" spans="2:17">
+      <c r="B307" s="5">
         <v>44622</v>
       </c>
       <c r="C307" s="1">
@@ -17410,9 +18326,12 @@
         <f t="shared" si="14"/>
         <v>4.06060606060606</v>
       </c>
-    </row>
-    <row r="308" spans="2:16">
-      <c r="B308" s="4">
+      <c r="Q307" s="3">
+        <v>7434847</v>
+      </c>
+    </row>
+    <row r="308" spans="2:17">
+      <c r="B308" s="5">
         <v>44621</v>
       </c>
       <c r="C308" s="1">
@@ -17460,9 +18379,12 @@
         <f t="shared" si="14"/>
         <v>4.38</v>
       </c>
-    </row>
-    <row r="309" spans="2:16">
-      <c r="B309" s="4">
+      <c r="Q308" s="3">
+        <v>2831536</v>
+      </c>
+    </row>
+    <row r="309" spans="2:17">
+      <c r="B309" s="5">
         <v>44620</v>
       </c>
       <c r="C309" s="1">
@@ -17510,9 +18432,12 @@
         <f t="shared" si="14"/>
         <v>3.84</v>
       </c>
-    </row>
-    <row r="310" spans="2:16">
-      <c r="B310" s="4">
+      <c r="Q309" s="3">
+        <v>1448146</v>
+      </c>
+    </row>
+    <row r="310" spans="2:17">
+      <c r="B310" s="5">
         <v>44619</v>
       </c>
       <c r="C310" s="1">
@@ -17560,9 +18485,12 @@
         <f t="shared" si="14"/>
         <v>3.79</v>
       </c>
-    </row>
-    <row r="311" spans="2:16">
-      <c r="B311" s="4">
+      <c r="Q310" s="3">
+        <v>1374428</v>
+      </c>
+    </row>
+    <row r="311" spans="2:17">
+      <c r="B311" s="5">
         <v>44618</v>
       </c>
       <c r="C311" s="1">
@@ -17610,9 +18538,12 @@
         <f t="shared" si="14"/>
         <v>4.09</v>
       </c>
-    </row>
-    <row r="312" spans="2:16">
-      <c r="B312" s="4">
+      <c r="Q311" s="3">
+        <v>3890646</v>
+      </c>
+    </row>
+    <row r="312" spans="2:17">
+      <c r="B312" s="5">
         <v>44617</v>
       </c>
       <c r="C312" s="1">
@@ -17660,9 +18591,12 @@
         <f t="shared" si="14"/>
         <v>4.7</v>
       </c>
-    </row>
-    <row r="313" spans="2:16">
-      <c r="B313" s="4">
+      <c r="Q312" s="3">
+        <v>4479514</v>
+      </c>
+    </row>
+    <row r="313" spans="2:17">
+      <c r="B313" s="5">
         <v>44616</v>
       </c>
       <c r="C313" s="1">
@@ -17710,9 +18644,12 @@
         <f t="shared" si="14"/>
         <v>4.19191919191919</v>
       </c>
-    </row>
-    <row r="314" spans="2:16">
-      <c r="B314" s="4">
+      <c r="Q313" s="3">
+        <v>766763</v>
+      </c>
+    </row>
+    <row r="314" spans="2:17">
+      <c r="B314" s="5">
         <v>44615</v>
       </c>
       <c r="C314" s="1">
@@ -17760,9 +18697,12 @@
         <f t="shared" si="14"/>
         <v>4.63366336633663</v>
       </c>
-    </row>
-    <row r="315" spans="2:16">
-      <c r="B315" s="4">
+      <c r="Q314" s="3">
+        <v>702353</v>
+      </c>
+    </row>
+    <row r="315" spans="2:17">
+      <c r="B315" s="5">
         <v>44614</v>
       </c>
       <c r="C315" s="1">
@@ -17810,9 +18750,12 @@
         <f t="shared" si="14"/>
         <v>3.5050505050505</v>
       </c>
-    </row>
-    <row r="316" spans="2:16">
-      <c r="B316" s="4">
+      <c r="Q315" s="3">
+        <v>1421673</v>
+      </c>
+    </row>
+    <row r="316" spans="2:17">
+      <c r="B316" s="5">
         <v>44613</v>
       </c>
       <c r="C316" s="1">
@@ -17860,9 +18803,12 @@
         <f t="shared" si="14"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="317" spans="2:16">
-      <c r="B317" s="4">
+      <c r="Q316" s="3">
+        <v>978481319</v>
+      </c>
+    </row>
+    <row r="317" spans="2:17">
+      <c r="B317" s="5">
         <v>44612</v>
       </c>
       <c r="C317" s="1">
@@ -17910,9 +18856,12 @@
         <f t="shared" si="14"/>
         <v>4.30693069306931</v>
       </c>
-    </row>
-    <row r="318" spans="2:16">
-      <c r="B318" s="4">
+      <c r="Q317" s="3">
+        <v>594255</v>
+      </c>
+    </row>
+    <row r="318" spans="2:17">
+      <c r="B318" s="5">
         <v>44611</v>
       </c>
       <c r="C318" s="1">
@@ -17960,9 +18909,12 @@
         <f t="shared" si="14"/>
         <v>5.08</v>
       </c>
-    </row>
-    <row r="319" spans="2:16">
-      <c r="B319" s="4">
+      <c r="Q318" s="3">
+        <v>92032</v>
+      </c>
+    </row>
+    <row r="319" spans="2:17">
+      <c r="B319" s="5">
         <v>44610</v>
       </c>
       <c r="C319" s="1">
@@ -18010,9 +18962,12 @@
         <f t="shared" si="14"/>
         <v>4.61386138613861</v>
       </c>
-    </row>
-    <row r="320" spans="2:16">
-      <c r="B320" s="4">
+      <c r="Q319" s="3">
+        <v>14768509</v>
+      </c>
+    </row>
+    <row r="320" spans="2:17">
+      <c r="B320" s="5">
         <v>44609</v>
       </c>
       <c r="C320" s="1">
@@ -18060,9 +19015,12 @@
         <f t="shared" si="14"/>
         <v>4.62</v>
       </c>
-    </row>
-    <row r="321" spans="2:16">
-      <c r="B321" s="4">
+      <c r="Q320" s="3">
+        <v>6839319</v>
+      </c>
+    </row>
+    <row r="321" spans="2:17">
+      <c r="B321" s="5">
         <v>44608</v>
       </c>
       <c r="C321" s="1">
@@ -18110,9 +19068,12 @@
         <f t="shared" si="14"/>
         <v>4.34</v>
       </c>
-    </row>
-    <row r="322" spans="2:16">
-      <c r="B322" s="4">
+      <c r="Q321" s="3">
+        <v>245944</v>
+      </c>
+    </row>
+    <row r="322" spans="2:17">
+      <c r="B322" s="5">
         <v>44607</v>
       </c>
       <c r="C322" s="1">
@@ -18160,9 +19121,12 @@
         <f t="shared" si="14"/>
         <v>4.1</v>
       </c>
-    </row>
-    <row r="323" spans="2:16">
-      <c r="B323" s="4">
+      <c r="Q322" s="3">
+        <v>2018777</v>
+      </c>
+    </row>
+    <row r="323" spans="2:17">
+      <c r="B323" s="5">
         <v>44606</v>
       </c>
       <c r="C323" s="1">
@@ -18210,9 +19174,12 @@
         <f t="shared" si="14"/>
         <v>4.1</v>
       </c>
-    </row>
-    <row r="324" spans="2:16">
-      <c r="B324" s="4">
+      <c r="Q323" s="3">
+        <v>525906</v>
+      </c>
+    </row>
+    <row r="324" spans="2:17">
+      <c r="B324" s="5">
         <v>44605</v>
       </c>
       <c r="C324" s="1">
@@ -18260,9 +19227,12 @@
         <f t="shared" si="14"/>
         <v>3.96</v>
       </c>
-    </row>
-    <row r="325" spans="2:16">
-      <c r="B325" s="4">
+      <c r="Q324" s="3">
+        <v>11423944</v>
+      </c>
+    </row>
+    <row r="325" spans="2:17">
+      <c r="B325" s="5">
         <v>44604</v>
       </c>
       <c r="C325" s="1">
@@ -18310,9 +19280,12 @@
         <f t="shared" si="14"/>
         <v>4.07</v>
       </c>
-    </row>
-    <row r="326" spans="2:16">
-      <c r="B326" s="4">
+      <c r="Q325" s="3">
+        <v>21795075</v>
+      </c>
+    </row>
+    <row r="326" spans="2:17">
+      <c r="B326" s="5">
         <v>44603</v>
       </c>
       <c r="C326" s="1">
@@ -18360,9 +19333,12 @@
         <f t="shared" ref="P326:P361" si="17">N326/O326</f>
         <v>4.4</v>
       </c>
-    </row>
-    <row r="327" spans="2:16">
-      <c r="B327" s="4">
+      <c r="Q326" s="3">
+        <v>1336605</v>
+      </c>
+    </row>
+    <row r="327" spans="2:17">
+      <c r="B327" s="5">
         <v>44602</v>
       </c>
       <c r="C327" s="1">
@@ -18410,9 +19386,12 @@
         <f t="shared" si="17"/>
         <v>4.02</v>
       </c>
-    </row>
-    <row r="328" spans="2:16">
-      <c r="B328" s="4">
+      <c r="Q327" s="3">
+        <v>4606318</v>
+      </c>
+    </row>
+    <row r="328" spans="2:17">
+      <c r="B328" s="5">
         <v>44601</v>
       </c>
       <c r="C328" s="1">
@@ -18460,9 +19439,12 @@
         <f t="shared" si="17"/>
         <v>4.18</v>
       </c>
-    </row>
-    <row r="329" spans="2:16">
-      <c r="B329" s="4">
+      <c r="Q328" s="3">
+        <v>18085495</v>
+      </c>
+    </row>
+    <row r="329" spans="2:17">
+      <c r="B329" s="5">
         <v>44600</v>
       </c>
       <c r="C329" s="1">
@@ -18510,9 +19492,12 @@
         <f t="shared" si="17"/>
         <v>4.24242424242424</v>
       </c>
-    </row>
-    <row r="330" spans="2:16">
-      <c r="B330" s="4">
+      <c r="Q329" s="3">
+        <v>46079991</v>
+      </c>
+    </row>
+    <row r="330" spans="2:17">
+      <c r="B330" s="5">
         <v>44599</v>
       </c>
       <c r="C330" s="1">
@@ -18560,9 +19545,12 @@
         <f t="shared" si="17"/>
         <v>4.71</v>
       </c>
-    </row>
-    <row r="331" spans="2:16">
-      <c r="B331" s="4">
+      <c r="Q330" s="3">
+        <v>7299470</v>
+      </c>
+    </row>
+    <row r="331" spans="2:17">
+      <c r="B331" s="5">
         <v>44598</v>
       </c>
       <c r="C331" s="1">
@@ -18610,9 +19598,12 @@
         <f t="shared" si="17"/>
         <v>4.42</v>
       </c>
-    </row>
-    <row r="332" spans="2:16">
-      <c r="B332" s="4">
+      <c r="Q331" s="3">
+        <v>15835076</v>
+      </c>
+    </row>
+    <row r="332" spans="2:17">
+      <c r="B332" s="5">
         <v>44597</v>
       </c>
       <c r="C332" s="1">
@@ -18660,9 +19651,12 @@
         <f t="shared" si="17"/>
         <v>4.1980198019802</v>
       </c>
-    </row>
-    <row r="333" spans="2:16">
-      <c r="B333" s="4">
+      <c r="Q332" s="3">
+        <v>497342</v>
+      </c>
+    </row>
+    <row r="333" spans="2:17">
+      <c r="B333" s="5">
         <v>44596</v>
       </c>
       <c r="C333" s="1">
@@ -18710,9 +19704,12 @@
         <f t="shared" si="17"/>
         <v>3.92</v>
       </c>
-    </row>
-    <row r="334" spans="2:16">
-      <c r="B334" s="4">
+      <c r="Q333" s="3">
+        <v>266830</v>
+      </c>
+    </row>
+    <row r="334" spans="2:17">
+      <c r="B334" s="5">
         <v>44595</v>
       </c>
       <c r="C334" s="1">
@@ -18760,9 +19757,12 @@
         <f t="shared" si="17"/>
         <v>4.25742574257426</v>
       </c>
-    </row>
-    <row r="335" spans="2:16">
-      <c r="B335" s="4">
+      <c r="Q334" s="3">
+        <v>287428</v>
+      </c>
+    </row>
+    <row r="335" spans="2:17">
+      <c r="B335" s="5">
         <v>44594</v>
       </c>
       <c r="C335" s="1">
@@ -18810,9 +19810,12 @@
         <f t="shared" si="17"/>
         <v>3.66336633663366</v>
       </c>
-    </row>
-    <row r="336" spans="2:16">
-      <c r="B336" s="4">
+      <c r="Q335" s="3">
+        <v>2140516</v>
+      </c>
+    </row>
+    <row r="336" spans="2:17">
+      <c r="B336" s="5">
         <v>44593</v>
       </c>
       <c r="C336" s="1">
@@ -18860,9 +19863,12 @@
         <f t="shared" si="17"/>
         <v>3.67</v>
       </c>
-    </row>
-    <row r="337" spans="2:16">
-      <c r="B337" s="4">
+      <c r="Q336" s="3">
+        <v>270014141</v>
+      </c>
+    </row>
+    <row r="337" spans="2:17">
+      <c r="B337" s="5">
         <v>44592</v>
       </c>
       <c r="C337" s="1">
@@ -18910,9 +19916,12 @@
         <f t="shared" si="17"/>
         <v>4.1010101010101</v>
       </c>
-    </row>
-    <row r="338" spans="2:16">
-      <c r="B338" s="4">
+      <c r="Q337" s="3">
+        <v>126699632</v>
+      </c>
+    </row>
+    <row r="338" spans="2:17">
+      <c r="B338" s="5">
         <v>44591</v>
       </c>
       <c r="C338" s="1">
@@ -18960,9 +19969,12 @@
         <f t="shared" si="17"/>
         <v>4.35</v>
       </c>
-    </row>
-    <row r="339" spans="2:16">
-      <c r="B339" s="4">
+      <c r="Q338" s="3">
+        <v>121159</v>
+      </c>
+    </row>
+    <row r="339" spans="2:17">
+      <c r="B339" s="5">
         <v>44590</v>
       </c>
       <c r="C339" s="1">
@@ -19010,9 +20022,12 @@
         <f t="shared" si="17"/>
         <v>3.93069306930693</v>
       </c>
-    </row>
-    <row r="340" spans="2:16">
-      <c r="B340" s="4">
+      <c r="Q339" s="3">
+        <v>302311431</v>
+      </c>
+    </row>
+    <row r="340" spans="2:17">
+      <c r="B340" s="5">
         <v>44589</v>
       </c>
       <c r="C340" s="1">
@@ -19060,9 +20075,12 @@
         <f t="shared" si="17"/>
         <v>4.45</v>
       </c>
-    </row>
-    <row r="341" spans="2:16">
-      <c r="B341" s="4">
+      <c r="Q340" s="3">
+        <v>1360009</v>
+      </c>
+    </row>
+    <row r="341" spans="2:17">
+      <c r="B341" s="5">
         <v>44588</v>
       </c>
       <c r="C341" s="1">
@@ -19110,9 +20128,12 @@
         <f t="shared" si="17"/>
         <v>3.85858585858586</v>
       </c>
-    </row>
-    <row r="342" spans="2:16">
-      <c r="B342" s="4">
+      <c r="Q341" s="3">
+        <v>36648260</v>
+      </c>
+    </row>
+    <row r="342" spans="2:17">
+      <c r="B342" s="5">
         <v>44587</v>
       </c>
       <c r="C342" s="1">
@@ -19160,9 +20181,12 @@
         <f t="shared" si="17"/>
         <v>4.17</v>
       </c>
-    </row>
-    <row r="343" spans="2:16">
-      <c r="B343" s="4">
+      <c r="Q342" s="3">
+        <v>725891</v>
+      </c>
+    </row>
+    <row r="343" spans="2:17">
+      <c r="B343" s="5">
         <v>44586</v>
       </c>
       <c r="C343" s="1">
@@ -19210,9 +20234,12 @@
         <f t="shared" si="17"/>
         <v>4.04040404040404</v>
       </c>
-    </row>
-    <row r="344" spans="2:16">
-      <c r="B344" s="4">
+      <c r="Q343" s="3">
+        <v>22450333</v>
+      </c>
+    </row>
+    <row r="344" spans="2:17">
+      <c r="B344" s="5">
         <v>44585</v>
       </c>
       <c r="C344" s="1">
@@ -19260,9 +20287,12 @@
         <f t="shared" si="17"/>
         <v>4.71</v>
       </c>
-    </row>
-    <row r="345" spans="2:16">
-      <c r="B345" s="4">
+      <c r="Q344" s="3">
+        <v>965905</v>
+      </c>
+    </row>
+    <row r="345" spans="2:17">
+      <c r="B345" s="5">
         <v>44584</v>
       </c>
       <c r="C345" s="1">
@@ -19310,9 +20340,12 @@
         <f t="shared" si="17"/>
         <v>3.96</v>
       </c>
-    </row>
-    <row r="346" spans="2:16">
-      <c r="B346" s="4">
+      <c r="Q345" s="3">
+        <v>640746</v>
+      </c>
+    </row>
+    <row r="346" spans="2:17">
+      <c r="B346" s="5">
         <v>44583</v>
       </c>
       <c r="C346" s="1">
@@ -19360,9 +20393,12 @@
         <f t="shared" si="17"/>
         <v>4.41584158415842</v>
       </c>
-    </row>
-    <row r="347" spans="2:16">
-      <c r="B347" s="4">
+      <c r="Q346" s="3">
+        <v>717079</v>
+      </c>
+    </row>
+    <row r="347" spans="2:17">
+      <c r="B347" s="5">
         <v>44582</v>
       </c>
       <c r="C347" s="1">
@@ -19410,9 +20446,12 @@
         <f t="shared" si="17"/>
         <v>3.86868686868687</v>
       </c>
-    </row>
-    <row r="348" spans="2:16">
-      <c r="B348" s="4">
+      <c r="Q347" s="3">
+        <v>891337</v>
+      </c>
+    </row>
+    <row r="348" spans="2:17">
+      <c r="B348" s="5">
         <v>44581</v>
       </c>
       <c r="C348" s="1">
@@ -19460,9 +20499,12 @@
         <f t="shared" si="17"/>
         <v>3.91089108910891</v>
       </c>
-    </row>
-    <row r="349" spans="2:16">
-      <c r="B349" s="4">
+      <c r="Q348" s="3">
+        <v>12656312</v>
+      </c>
+    </row>
+    <row r="349" spans="2:17">
+      <c r="B349" s="5">
         <v>44580</v>
       </c>
       <c r="C349" s="1">
@@ -19510,9 +20552,12 @@
         <f t="shared" si="17"/>
         <v>3.5050505050505</v>
       </c>
-    </row>
-    <row r="350" spans="2:16">
-      <c r="B350" s="4">
+      <c r="Q349" s="3">
+        <v>175527859</v>
+      </c>
+    </row>
+    <row r="350" spans="2:17">
+      <c r="B350" s="5">
         <v>44579</v>
       </c>
       <c r="C350" s="1">
@@ -19560,9 +20605,12 @@
         <f t="shared" si="17"/>
         <v>4.82178217821782</v>
       </c>
-    </row>
-    <row r="351" spans="2:16">
-      <c r="B351" s="4">
+      <c r="Q350" s="3">
+        <v>10773043</v>
+      </c>
+    </row>
+    <row r="351" spans="2:17">
+      <c r="B351" s="5">
         <v>44578</v>
       </c>
       <c r="C351" s="1">
@@ -19610,9 +20658,12 @@
         <f t="shared" si="17"/>
         <v>3.89108910891089</v>
       </c>
-    </row>
-    <row r="352" spans="2:16">
-      <c r="B352" s="4">
+      <c r="Q351" s="3">
+        <v>2665081</v>
+      </c>
+    </row>
+    <row r="352" spans="2:17">
+      <c r="B352" s="5">
         <v>44577</v>
       </c>
       <c r="C352" s="1">
@@ -19660,9 +20711,12 @@
         <f t="shared" si="17"/>
         <v>3.82</v>
       </c>
-    </row>
-    <row r="353" spans="2:16">
-      <c r="B353" s="4">
+      <c r="Q352" s="3">
+        <v>20423792</v>
+      </c>
+    </row>
+    <row r="353" spans="2:17">
+      <c r="B353" s="5">
         <v>44576</v>
       </c>
       <c r="C353" s="1">
@@ -19710,9 +20764,12 @@
         <f t="shared" si="17"/>
         <v>3.73267326732673</v>
       </c>
-    </row>
-    <row r="354" spans="2:16">
-      <c r="B354" s="4">
+      <c r="Q353" s="3">
+        <v>6396440</v>
+      </c>
+    </row>
+    <row r="354" spans="2:17">
+      <c r="B354" s="5">
         <v>44575</v>
       </c>
       <c r="C354" s="1">
@@ -19760,9 +20817,12 @@
         <f t="shared" si="17"/>
         <v>4.37</v>
       </c>
-    </row>
-    <row r="355" spans="2:16">
-      <c r="B355" s="4">
+      <c r="Q354" s="3">
+        <v>333638</v>
+      </c>
+    </row>
+    <row r="355" spans="2:17">
+      <c r="B355" s="5">
         <v>44574</v>
       </c>
       <c r="C355" s="1">
@@ -19810,9 +20870,12 @@
         <f t="shared" si="17"/>
         <v>4.60606060606061</v>
       </c>
-    </row>
-    <row r="356" spans="2:16">
-      <c r="B356" s="4">
+      <c r="Q355" s="3">
+        <v>4224864</v>
+      </c>
+    </row>
+    <row r="356" spans="2:17">
+      <c r="B356" s="5">
         <v>44573</v>
       </c>
       <c r="C356" s="1">
@@ -19860,9 +20923,12 @@
         <f t="shared" si="17"/>
         <v>4.57</v>
       </c>
-    </row>
-    <row r="357" spans="2:16">
-      <c r="B357" s="4">
+      <c r="Q356" s="3">
+        <v>11867822</v>
+      </c>
+    </row>
+    <row r="357" spans="2:17">
+      <c r="B357" s="5">
         <v>44572</v>
       </c>
       <c r="C357" s="1">
@@ -19910,9 +20976,12 @@
         <f t="shared" si="17"/>
         <v>3.73267326732673</v>
       </c>
-    </row>
-    <row r="358" spans="2:16">
-      <c r="B358" s="4">
+      <c r="Q357" s="3">
+        <v>29254937</v>
+      </c>
+    </row>
+    <row r="358" spans="2:17">
+      <c r="B358" s="5">
         <v>44571</v>
       </c>
       <c r="C358" s="1">
@@ -19960,9 +21029,12 @@
         <f t="shared" si="17"/>
         <v>4.43</v>
       </c>
-    </row>
-    <row r="359" spans="2:16">
-      <c r="B359" s="4">
+      <c r="Q358" s="3">
+        <v>31284313</v>
+      </c>
+    </row>
+    <row r="359" spans="2:17">
+      <c r="B359" s="5">
         <v>44570</v>
       </c>
       <c r="C359" s="1">
@@ -20010,9 +21082,12 @@
         <f t="shared" si="17"/>
         <v>4.64</v>
       </c>
-    </row>
-    <row r="360" spans="2:16">
-      <c r="B360" s="4">
+      <c r="Q359" s="3">
+        <v>1950264</v>
+      </c>
+    </row>
+    <row r="360" spans="2:17">
+      <c r="B360" s="5">
         <v>44569</v>
       </c>
       <c r="C360" s="1">
@@ -20060,9 +21135,12 @@
         <f t="shared" si="17"/>
         <v>4.22</v>
       </c>
-    </row>
-    <row r="361" spans="2:16">
-      <c r="B361" s="4">
+      <c r="Q360" s="3">
+        <v>2185208</v>
+      </c>
+    </row>
+    <row r="361" spans="2:17">
+      <c r="B361" s="5">
         <v>44568</v>
       </c>
       <c r="C361" s="1">
@@ -20110,9 +21188,12 @@
         <f t="shared" si="17"/>
         <v>4.13</v>
       </c>
+      <c r="Q361" s="3">
+        <v>878659</v>
+      </c>
     </row>
     <row r="362" spans="2:16">
-      <c r="B362" s="4"/>
+      <c r="B362" s="5"/>
       <c r="O362" s="1" t="s">
         <v>372</v>
       </c>
@@ -20122,7 +21203,7 @@
       </c>
     </row>
     <row r="363" spans="2:16">
-      <c r="B363" s="4"/>
+      <c r="B363" s="5"/>
       <c r="O363" s="1" t="s">
         <v>373</v>
       </c>
@@ -20132,7 +21213,7 @@
       </c>
     </row>
     <row r="364" spans="2:16">
-      <c r="B364" s="4"/>
+      <c r="B364" s="5"/>
       <c r="O364" s="1" t="s">
         <v>374</v>
       </c>
@@ -20142,355 +21223,355 @@
       </c>
     </row>
     <row r="365" spans="2:2">
-      <c r="B365" s="4"/>
+      <c r="B365" s="5"/>
     </row>
     <row r="366" spans="2:2">
-      <c r="B366" s="4"/>
+      <c r="B366" s="5"/>
     </row>
     <row r="367" spans="2:2">
-      <c r="B367" s="4"/>
+      <c r="B367" s="5"/>
     </row>
     <row r="368" spans="2:2">
-      <c r="B368" s="4"/>
+      <c r="B368" s="5"/>
     </row>
     <row r="369" spans="2:2">
-      <c r="B369" s="4"/>
+      <c r="B369" s="5"/>
     </row>
     <row r="370" spans="2:2">
-      <c r="B370" s="4"/>
+      <c r="B370" s="5"/>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="4"/>
+      <c r="B371" s="5"/>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="4"/>
+      <c r="B372" s="5"/>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="4"/>
+      <c r="B373" s="5"/>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="4"/>
+      <c r="B374" s="5"/>
     </row>
     <row r="375" spans="2:2">
-      <c r="B375" s="4"/>
+      <c r="B375" s="5"/>
     </row>
     <row r="376" spans="2:2">
-      <c r="B376" s="4"/>
+      <c r="B376" s="5"/>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="4"/>
+      <c r="B377" s="5"/>
     </row>
     <row r="378" spans="2:2">
-      <c r="B378" s="4"/>
+      <c r="B378" s="5"/>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="4"/>
+      <c r="B379" s="5"/>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="4"/>
+      <c r="B380" s="5"/>
     </row>
     <row r="381" spans="2:2">
-      <c r="B381" s="4"/>
+      <c r="B381" s="5"/>
     </row>
     <row r="382" spans="2:2">
-      <c r="B382" s="4"/>
+      <c r="B382" s="5"/>
     </row>
     <row r="383" spans="2:2">
-      <c r="B383" s="4"/>
+      <c r="B383" s="5"/>
     </row>
     <row r="384" spans="2:2">
-      <c r="B384" s="4"/>
+      <c r="B384" s="5"/>
     </row>
     <row r="385" spans="2:2">
-      <c r="B385" s="4"/>
+      <c r="B385" s="5"/>
     </row>
     <row r="386" spans="2:2">
-      <c r="B386" s="4"/>
+      <c r="B386" s="5"/>
     </row>
     <row r="387" spans="2:2">
-      <c r="B387" s="4"/>
+      <c r="B387" s="5"/>
     </row>
     <row r="388" spans="2:2">
-      <c r="B388" s="4"/>
+      <c r="B388" s="5"/>
     </row>
     <row r="389" spans="2:2">
-      <c r="B389" s="4"/>
+      <c r="B389" s="5"/>
     </row>
     <row r="390" spans="2:2">
-      <c r="B390" s="4"/>
+      <c r="B390" s="5"/>
     </row>
     <row r="391" spans="2:2">
-      <c r="B391" s="4"/>
+      <c r="B391" s="5"/>
     </row>
     <row r="392" spans="2:2">
-      <c r="B392" s="4"/>
+      <c r="B392" s="5"/>
     </row>
     <row r="393" spans="2:2">
-      <c r="B393" s="4"/>
+      <c r="B393" s="5"/>
     </row>
     <row r="394" spans="2:2">
-      <c r="B394" s="4"/>
+      <c r="B394" s="5"/>
     </row>
     <row r="395" spans="2:2">
-      <c r="B395" s="4"/>
+      <c r="B395" s="5"/>
     </row>
     <row r="396" spans="2:2">
-      <c r="B396" s="4"/>
+      <c r="B396" s="5"/>
     </row>
     <row r="397" spans="2:2">
-      <c r="B397" s="4"/>
+      <c r="B397" s="5"/>
     </row>
     <row r="398" spans="2:2">
-      <c r="B398" s="4"/>
+      <c r="B398" s="5"/>
     </row>
     <row r="399" spans="2:2">
-      <c r="B399" s="4"/>
+      <c r="B399" s="5"/>
     </row>
     <row r="400" spans="2:2">
-      <c r="B400" s="4"/>
+      <c r="B400" s="5"/>
     </row>
     <row r="401" spans="2:2">
-      <c r="B401" s="4"/>
+      <c r="B401" s="5"/>
     </row>
     <row r="402" spans="2:2">
-      <c r="B402" s="4"/>
+      <c r="B402" s="5"/>
     </row>
     <row r="403" spans="2:2">
-      <c r="B403" s="4"/>
+      <c r="B403" s="5"/>
     </row>
     <row r="404" spans="2:2">
-      <c r="B404" s="4"/>
+      <c r="B404" s="5"/>
     </row>
     <row r="405" spans="2:2">
-      <c r="B405" s="4"/>
+      <c r="B405" s="5"/>
     </row>
     <row r="406" spans="2:2">
-      <c r="B406" s="4"/>
+      <c r="B406" s="5"/>
     </row>
     <row r="407" spans="2:2">
-      <c r="B407" s="4"/>
+      <c r="B407" s="5"/>
     </row>
     <row r="408" spans="2:2">
-      <c r="B408" s="4"/>
+      <c r="B408" s="5"/>
     </row>
     <row r="409" spans="2:2">
-      <c r="B409" s="4"/>
+      <c r="B409" s="5"/>
     </row>
     <row r="410" spans="2:2">
-      <c r="B410" s="4"/>
+      <c r="B410" s="5"/>
     </row>
     <row r="411" spans="2:2">
-      <c r="B411" s="4"/>
+      <c r="B411" s="5"/>
     </row>
     <row r="412" spans="2:2">
-      <c r="B412" s="4"/>
+      <c r="B412" s="5"/>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="4"/>
+      <c r="B413" s="5"/>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="4"/>
+      <c r="B414" s="5"/>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="4"/>
+      <c r="B415" s="5"/>
     </row>
     <row r="416" spans="2:2">
-      <c r="B416" s="4"/>
+      <c r="B416" s="5"/>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="4"/>
+      <c r="B417" s="5"/>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="4"/>
+      <c r="B418" s="5"/>
     </row>
     <row r="419" spans="2:2">
-      <c r="B419" s="4"/>
+      <c r="B419" s="5"/>
     </row>
     <row r="420" spans="2:2">
-      <c r="B420" s="4"/>
+      <c r="B420" s="5"/>
     </row>
     <row r="421" spans="2:2">
-      <c r="B421" s="4"/>
+      <c r="B421" s="5"/>
     </row>
     <row r="422" spans="2:2">
-      <c r="B422" s="4"/>
+      <c r="B422" s="5"/>
     </row>
     <row r="423" spans="2:2">
-      <c r="B423" s="4"/>
+      <c r="B423" s="5"/>
     </row>
     <row r="424" spans="2:2">
-      <c r="B424" s="4"/>
+      <c r="B424" s="5"/>
     </row>
     <row r="425" spans="2:2">
-      <c r="B425" s="4"/>
+      <c r="B425" s="5"/>
     </row>
     <row r="426" spans="2:2">
-      <c r="B426" s="4"/>
+      <c r="B426" s="5"/>
     </row>
     <row r="427" spans="2:2">
-      <c r="B427" s="4"/>
+      <c r="B427" s="5"/>
     </row>
     <row r="428" spans="2:2">
-      <c r="B428" s="4"/>
+      <c r="B428" s="5"/>
     </row>
     <row r="429" spans="2:2">
-      <c r="B429" s="4"/>
+      <c r="B429" s="5"/>
     </row>
     <row r="430" spans="2:2">
-      <c r="B430" s="4"/>
+      <c r="B430" s="5"/>
     </row>
     <row r="431" spans="2:2">
-      <c r="B431" s="4"/>
+      <c r="B431" s="5"/>
     </row>
     <row r="432" spans="2:2">
-      <c r="B432" s="4"/>
+      <c r="B432" s="5"/>
     </row>
     <row r="433" spans="2:2">
-      <c r="B433" s="4"/>
+      <c r="B433" s="5"/>
     </row>
     <row r="434" spans="2:2">
-      <c r="B434" s="4"/>
+      <c r="B434" s="5"/>
     </row>
     <row r="435" spans="2:2">
-      <c r="B435" s="4"/>
+      <c r="B435" s="5"/>
     </row>
     <row r="436" spans="2:2">
-      <c r="B436" s="4"/>
+      <c r="B436" s="5"/>
     </row>
     <row r="437" spans="2:2">
-      <c r="B437" s="4"/>
+      <c r="B437" s="5"/>
     </row>
     <row r="438" spans="2:2">
-      <c r="B438" s="4"/>
+      <c r="B438" s="5"/>
     </row>
     <row r="439" spans="2:2">
-      <c r="B439" s="4"/>
+      <c r="B439" s="5"/>
     </row>
     <row r="440" spans="2:2">
-      <c r="B440" s="4"/>
+      <c r="B440" s="5"/>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="4"/>
+      <c r="B441" s="5"/>
     </row>
     <row r="442" spans="2:2">
-      <c r="B442" s="4"/>
+      <c r="B442" s="5"/>
     </row>
     <row r="443" spans="2:2">
-      <c r="B443" s="4"/>
+      <c r="B443" s="5"/>
     </row>
     <row r="444" spans="2:2">
-      <c r="B444" s="4"/>
+      <c r="B444" s="5"/>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="4"/>
+      <c r="B445" s="5"/>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="4"/>
+      <c r="B446" s="5"/>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="4"/>
+      <c r="B447" s="5"/>
     </row>
     <row r="448" spans="2:2">
-      <c r="B448" s="4"/>
+      <c r="B448" s="5"/>
     </row>
     <row r="449" spans="2:2">
-      <c r="B449" s="4"/>
+      <c r="B449" s="5"/>
     </row>
     <row r="450" spans="2:2">
-      <c r="B450" s="4"/>
+      <c r="B450" s="5"/>
     </row>
     <row r="451" spans="2:2">
-      <c r="B451" s="4"/>
+      <c r="B451" s="5"/>
     </row>
     <row r="452" spans="2:2">
-      <c r="B452" s="4"/>
+      <c r="B452" s="5"/>
     </row>
     <row r="453" spans="2:2">
-      <c r="B453" s="4"/>
+      <c r="B453" s="5"/>
     </row>
     <row r="454" spans="2:2">
-      <c r="B454" s="4"/>
+      <c r="B454" s="5"/>
     </row>
     <row r="455" spans="2:2">
-      <c r="B455" s="4"/>
+      <c r="B455" s="5"/>
     </row>
     <row r="456" spans="2:2">
-      <c r="B456" s="4"/>
+      <c r="B456" s="5"/>
     </row>
     <row r="457" spans="2:2">
-      <c r="B457" s="4"/>
+      <c r="B457" s="5"/>
     </row>
     <row r="458" spans="2:2">
-      <c r="B458" s="4"/>
+      <c r="B458" s="5"/>
     </row>
     <row r="459" spans="2:2">
-      <c r="B459" s="4"/>
+      <c r="B459" s="5"/>
     </row>
     <row r="460" spans="2:2">
-      <c r="B460" s="4"/>
+      <c r="B460" s="5"/>
     </row>
     <row r="461" spans="2:2">
-      <c r="B461" s="4"/>
+      <c r="B461" s="5"/>
     </row>
     <row r="462" spans="2:2">
-      <c r="B462" s="4"/>
+      <c r="B462" s="5"/>
     </row>
     <row r="463" spans="2:2">
-      <c r="B463" s="4"/>
+      <c r="B463" s="5"/>
     </row>
     <row r="464" spans="2:2">
-      <c r="B464" s="4"/>
+      <c r="B464" s="5"/>
     </row>
     <row r="465" spans="2:2">
-      <c r="B465" s="4"/>
+      <c r="B465" s="5"/>
     </row>
     <row r="466" spans="2:2">
-      <c r="B466" s="4"/>
+      <c r="B466" s="5"/>
     </row>
     <row r="467" spans="2:2">
-      <c r="B467" s="4"/>
+      <c r="B467" s="5"/>
     </row>
     <row r="468" spans="2:2">
-      <c r="B468" s="4"/>
+      <c r="B468" s="5"/>
     </row>
     <row r="469" spans="2:2">
-      <c r="B469" s="4"/>
+      <c r="B469" s="5"/>
     </row>
     <row r="470" spans="2:2">
-      <c r="B470" s="4"/>
+      <c r="B470" s="5"/>
     </row>
     <row r="471" spans="2:2">
-      <c r="B471" s="4"/>
+      <c r="B471" s="5"/>
     </row>
     <row r="472" spans="2:2">
-      <c r="B472" s="4"/>
+      <c r="B472" s="5"/>
     </row>
     <row r="473" spans="2:2">
-      <c r="B473" s="4"/>
+      <c r="B473" s="5"/>
     </row>
     <row r="474" spans="2:2">
-      <c r="B474" s="4"/>
+      <c r="B474" s="5"/>
     </row>
     <row r="475" spans="2:2">
-      <c r="B475" s="4"/>
+      <c r="B475" s="5"/>
     </row>
     <row r="476" spans="2:2">
-      <c r="B476" s="4"/>
+      <c r="B476" s="5"/>
     </row>
     <row r="477" spans="2:2">
-      <c r="B477" s="4"/>
+      <c r="B477" s="5"/>
     </row>
     <row r="478" spans="2:2">
-      <c r="B478" s="4"/>
+      <c r="B478" s="5"/>
     </row>
     <row r="479" spans="2:2">
-      <c r="B479" s="4"/>
+      <c r="B479" s="5"/>
     </row>
     <row r="480" spans="2:2">
-      <c r="B480" s="4"/>
+      <c r="B480" s="5"/>
     </row>
     <row r="481" spans="2:2">
-      <c r="B481" s="4"/>
+      <c r="B481" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
